--- a/output/tables.xlsx
+++ b/output/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Documents\GitHub\touchCouples\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD336B5-AAB2-441A-B937-F4A8E10C0356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F338205B-21D8-4B42-BF10-CF4E6B035AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Sample</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>SubGroup1</t>
+  </si>
+  <si>
+    <t>SubGroup2</t>
+  </si>
+  <si>
+    <t>SubGroup3</t>
+  </si>
+  <si>
+    <t>SubGroup4</t>
+  </si>
+  <si>
+    <t>SubGroup5</t>
+  </si>
+  <si>
+    <t>SubGroup6</t>
+  </si>
+  <si>
+    <t>SubGroup7</t>
+  </si>
+  <si>
+    <t>SubGroup8</t>
+  </si>
+  <si>
+    <t>SubGroup9</t>
   </si>
 </sst>
 </file>
@@ -95,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,37 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF002F5D"/>
-      <name val="Roboto Condensed"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF002F5D"/>
-      <name val="Roboto Condensed"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto Condensed"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2EFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -144,91 +155,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFAE9A63"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAE9A63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFAE9A63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFAE9A63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,23 +452,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L39"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -546,97 +488,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E11," (",ROUND(Sheet2!E12,2),"%)")</f>
-        <v>95 (1,4%)</v>
-      </c>
-      <c r="D2" s="5" t="str">
+        <v>95 (1.4%)</v>
+      </c>
+      <c r="D2" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F11," (",ROUND(Sheet2!F12,2),"%)")</f>
         <v>1768 (26%)</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G11," (",ROUND(Sheet2!G12,2),"%)")</f>
-        <v>1945 (28,6%)</v>
-      </c>
-      <c r="F2" s="5" t="str">
+        <v>1945 (28.6%)</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H11," (",ROUND(Sheet2!H12,2),"%)")</f>
-        <v>1876 (27,59%)</v>
-      </c>
-      <c r="G2" s="5" t="str">
+        <v>1876 (27.59%)</v>
+      </c>
+      <c r="G2" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I11," (",ROUND(Sheet2!I12,2),"%)")</f>
-        <v>1007 (14,81%)</v>
-      </c>
-      <c r="H2" s="5" t="str">
+        <v>1007 (14.81%)</v>
+      </c>
+      <c r="H2" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J11," (",ROUND(Sheet2!J12,2),"%)")</f>
-        <v>109 (1,6%)</v>
+        <v>109 (1.6%)</v>
       </c>
       <c r="I2">
         <f>SUM(Sheet2!E11:J11)</f>
         <v>6800</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E13," (",ROUND(Sheet2!E19,2),"%)")</f>
-        <v>6 (0,09%)</v>
-      </c>
-      <c r="D3" s="5" t="str">
+        <v>6 (0.31%)</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F13," (",ROUND(Sheet2!F19,2),"%)")</f>
-        <v>167 (2,46%)</v>
-      </c>
-      <c r="E3" s="5" t="str">
+        <v>167 (8.69%)</v>
+      </c>
+      <c r="E3" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G13," (",ROUND(Sheet2!G19,2),"%)")</f>
-        <v>382 (5,62%)</v>
-      </c>
-      <c r="F3" s="5" t="str">
+        <v>382 (19.89%)</v>
+      </c>
+      <c r="F3" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H13," (",ROUND(Sheet2!H19,2),"%)")</f>
-        <v>676 (9,94%)</v>
-      </c>
-      <c r="G3" s="5" t="str">
+        <v>676 (35.19%)</v>
+      </c>
+      <c r="G3" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I13," (",ROUND(Sheet2!I19,2),"%)")</f>
-        <v>589 (8,66%)</v>
-      </c>
-      <c r="H3" s="5" t="str">
+        <v>589 (30.66%)</v>
+      </c>
+      <c r="H3" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J13," (",ROUND(Sheet2!J19,2),"%)")</f>
-        <v>101 (1,49%)</v>
+        <v>101 (5.26%)</v>
       </c>
       <c r="I3">
         <f>SUM(Sheet2!E13:J13)</f>
         <v>1921</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E14," (",ROUND(Sheet2!E20,2),"%)")</f>
-        <v>35 (0,51%)</v>
-      </c>
-      <c r="D4" s="5" t="str">
+        <v>35 (1.42%)</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F14," (",ROUND(Sheet2!F20,2),"%)")</f>
-        <v>640 (9,41%)</v>
-      </c>
-      <c r="E4" s="5" t="str">
+        <v>640 (25.91%)</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G14," (",ROUND(Sheet2!G20,2),"%)")</f>
-        <v>825 (12,13%)</v>
-      </c>
-      <c r="F4" s="5" t="str">
+        <v>825 (33.4%)</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H14," (",ROUND(Sheet2!H20,2),"%)")</f>
-        <v>731 (10,75%)</v>
-      </c>
-      <c r="G4" s="5" t="str">
+        <v>731 (29.6%)</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I14," (",ROUND(Sheet2!I20,2),"%)")</f>
-        <v>239 (3,51%)</v>
-      </c>
-      <c r="H4" s="5" t="str">
+        <v>239 (9.68%)</v>
+      </c>
+      <c r="H4" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J14," (",ROUND(Sheet2!J20,2),"%)")</f>
         <v>0 (0%)</v>
       </c>
@@ -645,64 +587,64 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E15," (",ROUND(Sheet2!E21,2),"%)")</f>
-        <v>2 (0,03%)</v>
-      </c>
-      <c r="D5" s="5" t="str">
+        <v>2 (0.6%)</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F15," (",ROUND(Sheet2!F21,2),"%)")</f>
-        <v>29 (0,43%)</v>
-      </c>
-      <c r="E5" s="5" t="str">
+        <v>29 (8.71%)</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G15," (",ROUND(Sheet2!G21,2),"%)")</f>
-        <v>59 (0,87%)</v>
-      </c>
-      <c r="F5" s="5" t="str">
+        <v>59 (17.72%)</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H15," (",ROUND(Sheet2!H21,2),"%)")</f>
-        <v>139 (2,04%)</v>
-      </c>
-      <c r="G5" s="5" t="str">
+        <v>139 (41.74%)</v>
+      </c>
+      <c r="G5" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I15," (",ROUND(Sheet2!I21,2),"%)")</f>
-        <v>98 (1,44%)</v>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>98 (29.43%)</v>
+      </c>
+      <c r="H5" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J15," (",ROUND(Sheet2!J21,2),"%)")</f>
-        <v>6 (0,09%)</v>
+        <v>6 (1.8%)</v>
       </c>
       <c r="I5">
         <f>SUM(Sheet2!E15:J15)</f>
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E16," (",ROUND(Sheet2!E22,2),"%)")</f>
-        <v>46 (0,68%)</v>
-      </c>
-      <c r="D6" s="5" t="str">
+        <v>46 (2.7%)</v>
+      </c>
+      <c r="D6" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F16," (",ROUND(Sheet2!F22,2),"%)")</f>
-        <v>840 (12,35%)</v>
-      </c>
-      <c r="E6" s="5" t="str">
+        <v>840 (49.38%)</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G16," (",ROUND(Sheet2!G22,2),"%)")</f>
-        <v>536 (7,88%)</v>
-      </c>
-      <c r="F6" s="5" t="str">
+        <v>536 (31.51%)</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H16," (",ROUND(Sheet2!H22,2),"%)")</f>
-        <v>242 (3,56%)</v>
-      </c>
-      <c r="G6" s="5" t="str">
+        <v>242 (14.23%)</v>
+      </c>
+      <c r="G6" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I16," (",ROUND(Sheet2!I22,2),"%)")</f>
-        <v>37 (0,54%)</v>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>37 (2.18%)</v>
+      </c>
+      <c r="H6" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J16," (",ROUND(Sheet2!J22,2),"%)")</f>
         <v>0 (0%)</v>
       </c>
@@ -711,64 +653,64 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E17," (",ROUND(Sheet2!E23,2),"%)")</f>
         <v>0 (0%)</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F17," (",ROUND(Sheet2!F23,2),"%)")</f>
-        <v>3 (0,04%)</v>
-      </c>
-      <c r="E7" s="5" t="str">
+        <v>3 (6.67%)</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G17," (",ROUND(Sheet2!G23,2),"%)")</f>
-        <v>11 (0,16%)</v>
-      </c>
-      <c r="F7" s="5" t="str">
+        <v>11 (24.44%)</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H17," (",ROUND(Sheet2!H23,2),"%)")</f>
-        <v>15 (0,22%)</v>
-      </c>
-      <c r="G7" s="5" t="str">
+        <v>15 (33.33%)</v>
+      </c>
+      <c r="G7" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I17," (",ROUND(Sheet2!I23,2),"%)")</f>
-        <v>14 (0,21%)</v>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>14 (31.11%)</v>
+      </c>
+      <c r="H7" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J17," (",ROUND(Sheet2!J23,2),"%)")</f>
-        <v>2 (0,03%)</v>
+        <v>2 (4.44%)</v>
       </c>
       <c r="I7">
         <f>SUM(Sheet2!E17:J17)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!E18," (",ROUND(Sheet2!E24,2),"%)")</f>
-        <v>6 (0,09%)</v>
-      </c>
-      <c r="D8" s="5" t="str">
+        <v>6 (1.82%)</v>
+      </c>
+      <c r="D8" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!F18," (",ROUND(Sheet2!F24,2),"%)")</f>
-        <v>89 (1,31%)</v>
-      </c>
-      <c r="E8" s="5" t="str">
+        <v>89 (26.97%)</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!G18," (",ROUND(Sheet2!G24,2),"%)")</f>
-        <v>132 (1,94%)</v>
-      </c>
-      <c r="F8" s="5" t="str">
+        <v>132 (40%)</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!H18," (",ROUND(Sheet2!H24,2),"%)")</f>
-        <v>73 (1,07%)</v>
-      </c>
-      <c r="G8" s="5" t="str">
+        <v>73 (22.12%)</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!I18," (",ROUND(Sheet2!I24,2),"%)")</f>
-        <v>30 (0,44%)</v>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>30 (9.09%)</v>
+      </c>
+      <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT(Sheet2!J18," (",ROUND(Sheet2!J24,2),"%)")</f>
         <v>0 (0%)</v>
       </c>
@@ -777,7 +719,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -785,7 +727,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -799,7 +741,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -816,7 +758,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -833,7 +775,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -847,10 +789,8 @@
         <v>-0.16666666666666599</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -864,11 +804,8 @@
         <v>0.999999999999999</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -881,11 +818,8 @@
       <c r="E15" s="2">
         <v>-1.3333333333333299</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -898,130 +832,324 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="3:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="3:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="3:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H24" s="7"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P10," (",ROUND(Sheet2!P11,2),"%)")</f>
+        <v>457 (3.36%)</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q10," (",ROUND(Sheet2!Q11,2),"%)")</f>
+        <v>3444 (25.32%)</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R10," (",ROUND(Sheet2!R11,2),"%)")</f>
+        <v>3277 (24.1%)</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S10," (",ROUND(Sheet2!S11,2),"%)")</f>
+        <v>3332 (24.5%)</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T10," (",ROUND(Sheet2!T11,2),"%)")</f>
+        <v>2325 (17.1%)</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U10," (",ROUND(Sheet2!U11,2),"%)")</f>
+        <v>765 (5.63%)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P12," (",ROUND(Sheet2!P21,2),"%)")</f>
+        <v>23 (0.6%)</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q12," (",ROUND(Sheet2!Q21,2),"%)")</f>
+        <v>386 (10.05%)</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R12," (",ROUND(Sheet2!R21,2),"%)")</f>
+        <v>698 (18.17%)</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S12," (",ROUND(Sheet2!S21,2),"%)")</f>
+        <v>1104 (28.74%)</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T12," (",ROUND(Sheet2!T21,2),"%)")</f>
+        <v>1100 (28.63%)</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U12," (",ROUND(Sheet2!U21,2),"%)")</f>
+        <v>531 (13.82%)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P13," (",ROUND(Sheet2!P22,2),"%)")</f>
+        <v>81 (3.89%)</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q13," (",ROUND(Sheet2!Q22,2),"%)")</f>
+        <v>549 (26.34%)</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R13," (",ROUND(Sheet2!R22,2),"%)")</f>
+        <v>531 (25.48%)</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S13," (",ROUND(Sheet2!S22,2),"%)")</f>
+        <v>570 (27.35%)</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T13," (",ROUND(Sheet2!T22,2),"%)")</f>
+        <v>296 (14.2%)</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U13," (",ROUND(Sheet2!U22,2),"%)")</f>
+        <v>57 (2.74%)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P14," (",ROUND(Sheet2!P23,2),"%)")</f>
+        <v>224 (6.58%)</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q14," (",ROUND(Sheet2!Q23,2),"%)")</f>
+        <v>1471 (43.24%)</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R14," (",ROUND(Sheet2!R23,2),"%)")</f>
+        <v>955 (28.07%)</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S14," (",ROUND(Sheet2!S23,2),"%)")</f>
+        <v>576 (16.93%)</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T14," (",ROUND(Sheet2!T23,2),"%)")</f>
+        <v>176 (5.17%)</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U14," (",ROUND(Sheet2!U23,2),"%)")</f>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P15," (",ROUND(Sheet2!P24,2),"%)")</f>
+        <v>9 (3.08%)</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q15," (",ROUND(Sheet2!Q24,2),"%)")</f>
+        <v>87 (29.79%)</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R15," (",ROUND(Sheet2!R24,2),"%)")</f>
+        <v>83 (28.42%)</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S15," (",ROUND(Sheet2!S24,2),"%)")</f>
+        <v>72 (24.66%)</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T15," (",ROUND(Sheet2!T24,2),"%)")</f>
+        <v>35 (11.99%)</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U15," (",ROUND(Sheet2!U24,2),"%)")</f>
+        <v>6 (2.05%)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P16," (",ROUND(Sheet2!P25,2),"%)")</f>
+        <v>3 (1.06%)</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q16," (",ROUND(Sheet2!Q25,2),"%)")</f>
+        <v>39 (13.73%)</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R16," (",ROUND(Sheet2!R25,2),"%)")</f>
+        <v>54 (19.01%)</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S16," (",ROUND(Sheet2!S25,2),"%)")</f>
+        <v>84 (29.58%)</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T16," (",ROUND(Sheet2!T25,2),"%)")</f>
+        <v>72 (25.35%)</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U16," (",ROUND(Sheet2!U25,2),"%)")</f>
+        <v>32 (11.27%)</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P17," (",ROUND(Sheet2!P26,2),"%)")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q17," (",ROUND(Sheet2!Q26,2),"%)")</f>
+        <v>10 (11.11%)</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R17," (",ROUND(Sheet2!R26,2),"%)")</f>
+        <v>17 (18.89%)</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S17," (",ROUND(Sheet2!S26,2),"%)")</f>
+        <v>28 (31.11%)</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T17," (",ROUND(Sheet2!T26,2),"%)")</f>
+        <v>24 (26.67%)</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U17," (",ROUND(Sheet2!U26,2),"%)")</f>
+        <v>11 (12.22%)</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P18," (",ROUND(Sheet2!P27,2),"%)")</f>
+        <v>100 (3.5%)</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q18," (",ROUND(Sheet2!Q27,2),"%)")</f>
+        <v>765 (26.79%)</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R18," (",ROUND(Sheet2!R27,2),"%)")</f>
+        <v>770 (26.96%)</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S18," (",ROUND(Sheet2!S27,2),"%)")</f>
+        <v>682 (23.88%)</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T18," (",ROUND(Sheet2!T27,2),"%)")</f>
+        <v>457 (16%)</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U18," (",ROUND(Sheet2!U27,2),"%)")</f>
+        <v>82 (2.87%)</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P19," (",ROUND(Sheet2!P28,2),"%)")</f>
+        <v>2 (0.52%)</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q19," (",ROUND(Sheet2!Q28,2),"%)")</f>
+        <v>33 (8.64%)</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R19," (",ROUND(Sheet2!R28,2),"%)")</f>
+        <v>60 (15.71%)</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S19," (",ROUND(Sheet2!S28,2),"%)")</f>
+        <v>132 (34.55%)</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T19," (",ROUND(Sheet2!T28,2),"%)")</f>
+        <v>116 (30.37%)</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U19," (",ROUND(Sheet2!U28,2),"%)")</f>
+        <v>39 (10.21%)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P20," (",ROUND(Sheet2!P29,2),"%)")</f>
+        <v>15 (4.08%)</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q20," (",ROUND(Sheet2!Q29,2),"%)")</f>
+        <v>104 (28.26%)</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R20," (",ROUND(Sheet2!R29,2),"%)")</f>
+        <v>109 (29.62%)</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S20," (",ROUND(Sheet2!S29,2),"%)")</f>
+        <v>84 (22.83%)</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T20," (",ROUND(Sheet2!T29,2),"%)")</f>
+        <v>49 (13.32%)</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U20," (",ROUND(Sheet2!U29,2),"%)")</f>
+        <v>7 (1.9%)</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1029,7 +1157,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1037,7 +1165,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1045,7 +1173,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1053,7 +1181,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1061,7 +1189,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1069,7 +1197,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1077,7 +1205,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
     </row>
   </sheetData>
@@ -1088,33 +1216,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E75B23-68A5-4470-87E7-2F2D0D7D6C48}">
-  <dimension ref="B4:J24"/>
+  <dimension ref="B4:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0</v>
       </c>
@@ -1133,8 +1283,26 @@
       <c r="J10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P10">
+        <v>457</v>
+      </c>
+      <c r="Q10">
+        <v>3444</v>
+      </c>
+      <c r="R10">
+        <v>3277</v>
+      </c>
+      <c r="S10">
+        <v>3332</v>
+      </c>
+      <c r="T10">
+        <v>2325</v>
+      </c>
+      <c r="U10">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1156,8 +1324,26 @@
       <c r="J11">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="P11" s="3">
+        <v>3.36029411764705</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>25.323529411764699</v>
+      </c>
+      <c r="R11" s="3">
+        <v>24.095588235294102</v>
+      </c>
+      <c r="S11" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="T11" s="3">
+        <v>17.095588235294102</v>
+      </c>
+      <c r="U11" s="3">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E12" s="3">
         <v>1.3970588235294099</v>
       </c>
@@ -1176,8 +1362,33 @@
       <c r="J12" s="3">
         <v>1.6029411764705801</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12">
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <v>386</v>
+      </c>
+      <c r="R12">
+        <v>698</v>
+      </c>
+      <c r="S12">
+        <v>1104</v>
+      </c>
+      <c r="T12">
+        <v>1100</v>
+      </c>
+      <c r="U12">
+        <v>531</v>
+      </c>
+      <c r="V12">
+        <f>SUM(P12:U12)</f>
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -1199,8 +1410,37 @@
       <c r="J13">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <f>SUM(E13:J13)</f>
+        <v>1921</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>81</v>
+      </c>
+      <c r="Q13">
+        <v>549</v>
+      </c>
+      <c r="R13">
+        <v>531</v>
+      </c>
+      <c r="S13">
+        <v>570</v>
+      </c>
+      <c r="T13">
+        <v>296</v>
+      </c>
+      <c r="U13">
+        <v>57</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13:V20" si="0">SUM(P13:U13)</f>
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1462,37 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <f t="shared" ref="K14:K18" si="1">SUM(E14:J14)</f>
+        <v>2470</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14">
+        <v>224</v>
+      </c>
+      <c r="Q14">
+        <v>1471</v>
+      </c>
+      <c r="R14">
+        <v>955</v>
+      </c>
+      <c r="S14">
+        <v>576</v>
+      </c>
+      <c r="T14">
+        <v>176</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>2</v>
       </c>
@@ -1245,8 +1514,37 @@
       <c r="J15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>83</v>
+      </c>
+      <c r="S15">
+        <v>72</v>
+      </c>
+      <c r="T15">
+        <v>35</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6800</v>
       </c>
@@ -1271,8 +1569,41 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1701</v>
+      </c>
+      <c r="M16">
+        <f>B16*2</f>
+        <v>13600</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>39</v>
+      </c>
+      <c r="R16">
+        <v>54</v>
+      </c>
+      <c r="S16">
+        <v>84</v>
+      </c>
+      <c r="T16">
+        <v>72</v>
+      </c>
+      <c r="U16">
+        <v>32</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -1294,8 +1625,37 @@
       <c r="J17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="S17">
+        <v>28</v>
+      </c>
+      <c r="T17">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>11</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -1317,182 +1677,521 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>765</v>
+      </c>
+      <c r="R18">
+        <v>770</v>
+      </c>
+      <c r="S18">
+        <v>682</v>
+      </c>
+      <c r="T18">
+        <v>457</v>
+      </c>
+      <c r="U18">
+        <v>82</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <f>E13*100/$B$16</f>
-        <v>8.8235294117647065E-2</v>
+        <f>E13*100/$K$13</f>
+        <v>0.31233732431025507</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ref="F19:J19" si="0">F13*100/$B$16</f>
-        <v>2.4558823529411766</v>
+        <f>F13*100/$K$13</f>
+        <v>8.693388859968767</v>
       </c>
       <c r="G19" s="3">
+        <f>G13*100/$K$13</f>
+        <v>19.885476314419574</v>
+      </c>
+      <c r="H19" s="3">
+        <f>H13*100/$K$13</f>
+        <v>35.190005205622072</v>
+      </c>
+      <c r="I19" s="3">
+        <f>I13*100/$K$13</f>
+        <v>30.661114003123373</v>
+      </c>
+      <c r="J19" s="3">
+        <f>J13*100/$K$13</f>
+        <v>5.2576782925559602</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+      <c r="R19">
+        <v>60</v>
+      </c>
+      <c r="S19">
+        <v>132</v>
+      </c>
+      <c r="T19">
+        <v>116</v>
+      </c>
+      <c r="U19">
+        <v>39</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="0"/>
-        <v>5.617647058823529</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9411764705882355</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>8.6617647058823533</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4852941176470589</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <f>E14*100/$B$16</f>
-        <v>0.51470588235294112</v>
+        <f>E14*100/$K$14</f>
+        <v>1.417004048582996</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="E20:J24" si="1">F14*100/$B$16</f>
-        <v>9.4117647058823533</v>
+        <f>F14*100/$K$14</f>
+        <v>25.910931174089068</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>12.132352941176471</v>
+        <f>G14*100/$K$14</f>
+        <v>33.400809716599191</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
-        <v>10.75</v>
+        <f>H14*100/$K$14</f>
+        <v>29.595141700404859</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5147058823529411</v>
+        <f>I14*100/$K$14</f>
+        <v>9.6761133603238871</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
+        <f>J14*100/$K$14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>104</v>
+      </c>
+      <c r="R20">
+        <v>109</v>
+      </c>
+      <c r="S20">
+        <v>84</v>
+      </c>
+      <c r="T20">
+        <v>49</v>
+      </c>
+      <c r="U20">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <f>E15*100/$B$16</f>
-        <v>2.9411764705882353E-2</v>
+        <f>E15*100/$K$15</f>
+        <v>0.60060060060060061</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4264705882352941</v>
+        <f>F15*100/$K$15</f>
+        <v>8.7087087087087092</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.86764705882352944</v>
+        <f>G15*100/$K$15</f>
+        <v>17.717717717717719</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0441176470588234</v>
+        <f>H15*100/$K$15</f>
+        <v>41.741741741741741</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4411764705882353</v>
+        <f>I15*100/$K$15</f>
+        <v>29.42942942942943</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+        <f>J15*100/$K$15</f>
+        <v>1.8018018018018018</v>
+      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="3">
+        <f>P12*100/$V$12</f>
+        <v>0.59864653826132219</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" ref="Q21:U21" si="2">Q12*100/$V$12</f>
+        <v>10.046850598646538</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="2"/>
+        <v>18.167621030713171</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="2"/>
+        <v>28.735033836543465</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="2"/>
+        <v>28.630921395106714</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="2"/>
+        <v>13.820926600728788</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="3">
-        <f>E16*100/$B$16</f>
-        <v>0.67647058823529416</v>
+        <f>E16*100/$K$16</f>
+        <v>2.7042915931804821</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>12.352941176470589</v>
+        <f>F16*100/$K$16</f>
+        <v>49.382716049382715</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>7.882352941176471</v>
+        <f>G16*100/$K$16</f>
+        <v>31.510875955320401</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5588235294117645</v>
+        <f>H16*100/$K$16</f>
+        <v>14.22692533803645</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.54411764705882348</v>
+        <f>I16*100/$K$16</f>
+        <v>2.1751910640799528</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
+        <f>J16*100/$K$16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="3">
+        <f>P13*100/$V$13</f>
+        <v>3.886756238003839</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22:U22" si="3">Q13*100/$V$13</f>
+        <v>26.343570057581573</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="3"/>
+        <v>25.479846449136275</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="3"/>
+        <v>27.351247600767753</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="3"/>
+        <v>14.203454894433781</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7351247600767756</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <f>E17*100/$B$16</f>
+        <f>E17*100/$K$17</f>
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>4.4117647058823532E-2</v>
+        <f>F17*100/$K$17</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16176470588235295</v>
+        <f>G17*100/$K$17</f>
+        <v>24.444444444444443</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.22058823529411764</v>
+        <f>H17*100/$K$17</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.20588235294117646</v>
+        <f>I17*100/$K$17</f>
+        <v>31.111111111111111</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+        <f>J17*100/$K$17</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="3">
+        <f>P14*100/$V$14</f>
+        <v>6.5843621399176957</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" ref="Q23:U23" si="4">Q14*100/$V$14</f>
+        <v>43.239271017048793</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="4"/>
+        <v>28.071722516166961</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="4"/>
+        <v>16.93121693121693</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1734273956496182</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="1"/>
-        <v>8.8235294117647065E-2</v>
+        <f>E18*100/$K$18</f>
+        <v>1.8181818181818181</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3088235294117647</v>
+        <f>F18*100/$K$18</f>
+        <v>26.969696969696969</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9411764705882353</v>
+        <f>G18*100/$K$18</f>
+        <v>40</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0735294117647058</v>
+        <f>H18*100/$K$18</f>
+        <v>22.121212121212121</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.44117647058823528</v>
+        <f>I18*100/$K$18</f>
+        <v>9.0909090909090917</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
+        <f>J18*100/$K$18</f>
         <v>0</v>
       </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="3">
+        <f>P15*100/$V$15</f>
+        <v>3.0821917808219177</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" ref="Q24:U24" si="5">Q15*100/$V$15</f>
+        <v>29.794520547945204</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="5"/>
+        <v>28.424657534246574</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="5"/>
+        <v>24.657534246575342</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="5"/>
+        <v>11.986301369863014</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0547945205479454</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="3">
+        <f>P16*100/$V$16</f>
+        <v>1.056338028169014</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" ref="Q25:U25" si="6">Q16*100/$V$16</f>
+        <v>13.732394366197184</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="6"/>
+        <v>19.014084507042252</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="6"/>
+        <v>29.577464788732396</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="6"/>
+        <v>25.35211267605634</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="6"/>
+        <v>11.267605633802816</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="3">
+        <f>P17*100/$V$17</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" ref="Q26:U26" si="7">Q17*100/$V$17</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="7"/>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="7"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="7"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="7"/>
+        <v>12.222222222222221</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="3">
+        <f>P18*100/$V$18</f>
+        <v>3.5014005602240896</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" ref="Q27:U27" si="8">Q18*100/$V$18</f>
+        <v>26.785714285714285</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="8"/>
+        <v>26.96078431372549</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="8"/>
+        <v>23.879551820728292</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="8"/>
+        <v>16.001400560224091</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="8"/>
+        <v>2.8711484593837535</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="3">
+        <f>P19*100/$V$19</f>
+        <v>0.52356020942408377</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" ref="Q28:U28" si="9">Q19*100/$V$19</f>
+        <v>8.6387434554973819</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="9"/>
+        <v>15.706806282722512</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="9"/>
+        <v>34.554973821989527</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="9"/>
+        <v>30.366492146596858</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="9"/>
+        <v>10.209424083769633</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="3">
+        <f>P20*100/$V$20</f>
+        <v>4.0760869565217392</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" ref="Q29:U29" si="10">Q20*100/$V$20</f>
+        <v>28.260869565217391</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="10"/>
+        <v>29.619565217391305</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="10"/>
+        <v>22.826086956521738</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="10"/>
+        <v>13.315217391304348</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="10"/>
+        <v>1.9021739130434783</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>95*100/6800</f>
+        <v>1.3970588235294117</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/tables.xlsx
+++ b/output/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F338205B-21D8-4B42-BF10-CF4E6B035AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E35D8A4-8BC7-4044-ABDB-987858076AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,23 +452,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I39"/>
+  <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -488,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -553,8 +553,12 @@
         <f>SUM(Sheet2!E13:J13)</f>
         <v>1921</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <f>I3*100/$I$2</f>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -586,8 +590,12 @@
         <f>SUM(Sheet2!E14:J14)</f>
         <v>2470</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J7" si="0">I4*100/$I$2</f>
+        <v>36.323529411764703</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,8 +627,12 @@
         <f>SUM(Sheet2!E15:J15)</f>
         <v>333</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8970588235294121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,8 +664,12 @@
         <f>SUM(Sheet2!E16:J16)</f>
         <v>1701</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>25.014705882352942</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -685,8 +701,12 @@
         <f>SUM(Sheet2!E17:J17)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66176470588235292</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,8 +738,12 @@
         <f>SUM(Sheet2!E18:J18)</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <f>I8*100/$I$2</f>
+        <v>4.8529411764705879</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -727,7 +751,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -741,7 +765,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -758,7 +782,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -775,7 +799,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -790,7 +814,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -805,7 +829,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -819,7 +843,7 @@
         <v>-1.3333333333333299</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -833,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -853,7 +877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
@@ -882,7 +906,7 @@
         <v>765 (5.63%)</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -911,7 +935,7 @@
         <v>531 (13.82%)</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -940,7 +964,7 @@
         <v>57 (2.74%)</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
@@ -969,7 +993,7 @@
         <v>0 (0%)</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -998,7 +1022,7 @@
         <v>6 (2.05%)</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1051,7 @@
         <v>32 (11.27%)</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -1056,7 +1080,7 @@
         <v>11 (12.22%)</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1109,7 @@
         <v>82 (2.87%)</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1138,7 @@
         <v>39 (10.21%)</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
@@ -1143,13 +1167,13 @@
         <v>7 (1.9%)</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1157,7 +1181,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1165,7 +1189,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1173,7 +1197,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1181,7 +1205,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1189,7 +1213,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1197,7 +1221,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1205,7 +1229,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C39" s="2"/>
     </row>
   </sheetData>
@@ -1218,32 +1242,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E75B23-68A5-4470-87E7-2F2D0D7D6C48}">
   <dimension ref="B4:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F9" s="3"/>
       <c r="P9">
         <v>0</v>
@@ -1264,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>0</v>
       </c>
@@ -1302,7 +1326,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="E12" s="3">
         <v>1.3970588235294099</v>
       </c>
@@ -1388,7 +1412,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1464,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1568,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>6800</v>
       </c>
@@ -1603,7 +1627,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -1707,32 +1731,32 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <f>E13*100/$K$13</f>
+        <f t="shared" ref="E19:J19" si="2">E13*100/$K$13</f>
         <v>0.31233732431025507</v>
       </c>
       <c r="F19" s="3">
-        <f>F13*100/$K$13</f>
+        <f t="shared" si="2"/>
         <v>8.693388859968767</v>
       </c>
       <c r="G19" s="3">
-        <f>G13*100/$K$13</f>
+        <f t="shared" si="2"/>
         <v>19.885476314419574</v>
       </c>
       <c r="H19" s="3">
-        <f>H13*100/$K$13</f>
+        <f t="shared" si="2"/>
         <v>35.190005205622072</v>
       </c>
       <c r="I19" s="3">
-        <f>I13*100/$K$13</f>
+        <f t="shared" si="2"/>
         <v>30.661114003123373</v>
       </c>
       <c r="J19" s="3">
-        <f>J13*100/$K$13</f>
+        <f t="shared" si="2"/>
         <v>5.2576782925559602</v>
       </c>
       <c r="O19" t="s">
@@ -1761,32 +1785,32 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <f>E14*100/$K$14</f>
+        <f t="shared" ref="E20:J20" si="3">E14*100/$K$14</f>
         <v>1.417004048582996</v>
       </c>
       <c r="F20" s="3">
-        <f>F14*100/$K$14</f>
+        <f t="shared" si="3"/>
         <v>25.910931174089068</v>
       </c>
       <c r="G20" s="3">
-        <f>G14*100/$K$14</f>
+        <f t="shared" si="3"/>
         <v>33.400809716599191</v>
       </c>
       <c r="H20" s="3">
-        <f>H14*100/$K$14</f>
+        <f t="shared" si="3"/>
         <v>29.595141700404859</v>
       </c>
       <c r="I20" s="3">
-        <f>I14*100/$K$14</f>
+        <f t="shared" si="3"/>
         <v>9.6761133603238871</v>
       </c>
       <c r="J20" s="3">
-        <f>J14*100/$K$14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" t="s">
@@ -1815,32 +1839,32 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <f>E15*100/$K$15</f>
+        <f t="shared" ref="E21:J21" si="4">E15*100/$K$15</f>
         <v>0.60060060060060061</v>
       </c>
       <c r="F21" s="3">
-        <f>F15*100/$K$15</f>
+        <f t="shared" si="4"/>
         <v>8.7087087087087092</v>
       </c>
       <c r="G21" s="3">
-        <f>G15*100/$K$15</f>
+        <f t="shared" si="4"/>
         <v>17.717717717717719</v>
       </c>
       <c r="H21" s="3">
-        <f>H15*100/$K$15</f>
+        <f t="shared" si="4"/>
         <v>41.741741741741741</v>
       </c>
       <c r="I21" s="3">
-        <f>I15*100/$K$15</f>
+        <f t="shared" si="4"/>
         <v>29.42942942942943</v>
       </c>
       <c r="J21" s="3">
-        <f>J15*100/$K$15</f>
+        <f t="shared" si="4"/>
         <v>1.8018018018018018</v>
       </c>
       <c r="O21" t="s">
@@ -1851,52 +1875,52 @@
         <v>0.59864653826132219</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" ref="Q21:U21" si="2">Q12*100/$V$12</f>
+        <f t="shared" ref="Q21:U21" si="5">Q12*100/$V$12</f>
         <v>10.046850598646538</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.167621030713171</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.735033836543465</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28.630921395106714</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.820926600728788</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="3">
-        <f>E16*100/$K$16</f>
+        <f t="shared" ref="E22:J22" si="6">E16*100/$K$16</f>
         <v>2.7042915931804821</v>
       </c>
       <c r="F22" s="3">
-        <f>F16*100/$K$16</f>
+        <f t="shared" si="6"/>
         <v>49.382716049382715</v>
       </c>
       <c r="G22" s="3">
-        <f>G16*100/$K$16</f>
+        <f t="shared" si="6"/>
         <v>31.510875955320401</v>
       </c>
       <c r="H22" s="3">
-        <f>H16*100/$K$16</f>
+        <f t="shared" si="6"/>
         <v>14.22692533803645</v>
       </c>
       <c r="I22" s="3">
-        <f>I16*100/$K$16</f>
+        <f t="shared" si="6"/>
         <v>2.1751910640799528</v>
       </c>
       <c r="J22" s="3">
-        <f>J16*100/$K$16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O22" t="s">
@@ -1907,52 +1931,52 @@
         <v>3.886756238003839</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" ref="Q22:U22" si="3">Q13*100/$V$13</f>
+        <f t="shared" ref="Q22:U22" si="7">Q13*100/$V$13</f>
         <v>26.343570057581573</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.479846449136275</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.351247600767753</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.203454894433781</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7351247600767756</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <f>E17*100/$K$17</f>
+        <f t="shared" ref="E23:J23" si="8">E17*100/$K$17</f>
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f>F17*100/$K$17</f>
+        <f t="shared" si="8"/>
         <v>6.666666666666667</v>
       </c>
       <c r="G23" s="3">
-        <f>G17*100/$K$17</f>
+        <f t="shared" si="8"/>
         <v>24.444444444444443</v>
       </c>
       <c r="H23" s="3">
-        <f>H17*100/$K$17</f>
+        <f t="shared" si="8"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I23" s="3">
-        <f>I17*100/$K$17</f>
+        <f t="shared" si="8"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J23" s="3">
-        <f>J17*100/$K$17</f>
+        <f t="shared" si="8"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="O23" t="s">
@@ -1963,52 +1987,52 @@
         <v>6.5843621399176957</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" ref="Q23:U23" si="4">Q14*100/$V$14</f>
+        <f t="shared" ref="Q23:U23" si="9">Q14*100/$V$14</f>
         <v>43.239271017048793</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>28.071722516166961</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.93121693121693</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.1734273956496182</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <f>E18*100/$K$18</f>
+        <f t="shared" ref="E24:J24" si="10">E18*100/$K$18</f>
         <v>1.8181818181818181</v>
       </c>
       <c r="F24" s="3">
-        <f>F18*100/$K$18</f>
+        <f t="shared" si="10"/>
         <v>26.969696969696969</v>
       </c>
       <c r="G24" s="3">
-        <f>G18*100/$K$18</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="H24" s="3">
-        <f>H18*100/$K$18</f>
+        <f t="shared" si="10"/>
         <v>22.121212121212121</v>
       </c>
       <c r="I24" s="3">
-        <f>I18*100/$K$18</f>
+        <f t="shared" si="10"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="J24" s="3">
-        <f>J18*100/$K$18</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O24" t="s">
@@ -2019,27 +2043,27 @@
         <v>3.0821917808219177</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" ref="Q24:U24" si="5">Q15*100/$V$15</f>
+        <f t="shared" ref="Q24:U24" si="11">Q15*100/$V$15</f>
         <v>29.794520547945204</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>28.424657534246574</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>24.657534246575342</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.986301369863014</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.0547945205479454</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O25" t="s">
         <v>21</v>
       </c>
@@ -2048,27 +2072,27 @@
         <v>1.056338028169014</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ref="Q25:U25" si="6">Q16*100/$V$16</f>
+        <f t="shared" ref="Q25:U25" si="12">Q16*100/$V$16</f>
         <v>13.732394366197184</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19.014084507042252</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>29.577464788732396</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.35211267605634</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11.267605633802816</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O26" t="s">
         <v>22</v>
       </c>
@@ -2077,27 +2101,27 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" ref="Q26:U26" si="7">Q17*100/$V$17</f>
+        <f t="shared" ref="Q26:U26" si="13">Q17*100/$V$17</f>
         <v>11.111111111111111</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>18.888888888888889</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>31.111111111111111</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>26.666666666666668</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12.222222222222221</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O27" t="s">
         <v>23</v>
       </c>
@@ -2106,27 +2130,27 @@
         <v>3.5014005602240896</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" ref="Q27:U27" si="8">Q18*100/$V$18</f>
+        <f t="shared" ref="Q27:U27" si="14">Q18*100/$V$18</f>
         <v>26.785714285714285</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>26.96078431372549</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23.879551820728292</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16.001400560224091</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.8711484593837535</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O28" t="s">
         <v>24</v>
       </c>
@@ -2135,27 +2159,27 @@
         <v>0.52356020942408377</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" ref="Q28:U28" si="9">Q19*100/$V$19</f>
+        <f t="shared" ref="Q28:U28" si="15">Q19*100/$V$19</f>
         <v>8.6387434554973819</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>15.706806282722512</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>34.554973821989527</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>30.366492146596858</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>10.209424083769633</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O29" t="s">
         <v>25</v>
       </c>
@@ -2164,27 +2188,27 @@
         <v>4.0760869565217392</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" ref="Q29:U29" si="10">Q20*100/$V$20</f>
+        <f t="shared" ref="Q29:U29" si="16">Q20*100/$V$20</f>
         <v>28.260869565217391</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>29.619565217391305</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22.826086956521738</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13.315217391304348</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.9021739130434783</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.35">
       <c r="F32">
         <f>95*100/6800</f>
         <v>1.3970588235294117</v>

--- a/output/tables.xlsx
+++ b/output/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Documents\GitHub\touchCouples\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E35D8A4-8BC7-4044-ABDB-987858076AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9232D999-F160-451F-A909-B260FBE13849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22500" yWindow="2430" windowWidth="17610" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>Sample</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>SubGroup9</t>
+  </si>
+  <si>
+    <t>Deprived: both partners</t>
+  </si>
+  <si>
+    <t>Deprived: me</t>
+  </si>
+  <si>
+    <t>Deprived: partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturated: both partners </t>
+  </si>
+  <si>
+    <t>Saturated: me</t>
+  </si>
+  <si>
+    <t>Saturated: partner</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>mixed me</t>
+  </si>
+  <si>
+    <t>mixed partner</t>
   </si>
 </sst>
 </file>
@@ -124,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -171,6 +207,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,23 +494,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J39"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -488,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +564,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -558,7 +601,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +638,7 @@
         <v>36.323529411764703</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -632,7 +675,7 @@
         <v>4.8970588235294121</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +712,7 @@
         <v>25.014705882352942</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -706,7 +749,7 @@
         <v>0.66176470588235292</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -743,7 +786,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -751,7 +794,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -765,7 +808,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -782,7 +825,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -799,7 +842,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -814,7 +857,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -829,7 +872,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -843,7 +886,7 @@
         <v>-1.3333333333333299</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -857,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -876,8 +919,11 @@
       <c r="H19" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
@@ -906,7 +952,7 @@
         <v>765 (5.63%)</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -935,7 +981,7 @@
         <v>531 (13.82%)</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -964,7 +1010,7 @@
         <v>57 (2.74%)</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
@@ -993,7 +1039,7 @@
         <v>0 (0%)</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1068,7 @@
         <v>6 (2.05%)</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1097,7 @@
         <v>32 (11.27%)</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -1080,7 +1126,7 @@
         <v>11 (12.22%)</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1155,7 @@
         <v>82 (2.87%)</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1184,7 @@
         <v>39 (10.21%)</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
@@ -1167,70 +1213,488 @@
         <v>7 (1.9%)</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C39" s="2"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="str">
+        <f>_xlfn.CONCAT("Whole Sample"," (n = ",Sheet2!K11,")")</f>
+        <v>Whole Sample (n = 6800)</v>
+      </c>
+      <c r="C32" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E11," (",ROUND(Sheet2!E12,2),"%)")</f>
+        <v>95 (1.4%)</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F11," (",ROUND(Sheet2!F12,2),"%)")</f>
+        <v>1768 (26%)</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G11," (",ROUND(Sheet2!G12,2),"%)")</f>
+        <v>1945 (28.6%)</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H11," (",ROUND(Sheet2!H12,2),"%)")</f>
+        <v>1876 (27.59%)</v>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I11," (",ROUND(Sheet2!I12,2),"%)")</f>
+        <v>1007 (14.81%)</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J11," (",ROUND(Sheet2!J12,2),"%)")</f>
+        <v>109 (1.6%)</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="str">
+        <f>_xlfn.CONCAT("Satisfied"," (n = ",Sheet2!K13,")")</f>
+        <v>Satisfied (n = 1921)</v>
+      </c>
+      <c r="C33" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E13," (",ROUND(Sheet2!E19,2),"%)")</f>
+        <v>6 (0.31%)</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F13," (",ROUND(Sheet2!F19,2),"%)")</f>
+        <v>167 (8.69%)</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G13," (",ROUND(Sheet2!G19,2),"%)")</f>
+        <v>382 (19.89%)</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H13," (",ROUND(Sheet2!H19,2),"%)")</f>
+        <v>676 (35.19%)</v>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I13," (",ROUND(Sheet2!I19,2),"%)")</f>
+        <v>589 (30.66%)</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J13," (",ROUND(Sheet2!J19,2),"%)")</f>
+        <v>101 (5.26%)</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="str">
+        <f>_xlfn.CONCAT("Deprived: both partners"," (n = ",Sheet2!K16,")")</f>
+        <v>Deprived: both partners (n = 1701)</v>
+      </c>
+      <c r="C34" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E16," (",ROUND(Sheet2!E22,2),"%)")</f>
+        <v>46 (2.7%)</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F16," (",ROUND(Sheet2!F22,2),"%)")</f>
+        <v>840 (49.38%)</v>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G16," (",ROUND(Sheet2!G22,2),"%)")</f>
+        <v>536 (31.51%)</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H16," (",ROUND(Sheet2!H22,2),"%)")</f>
+        <v>242 (14.23%)</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I16," (",ROUND(Sheet2!I22,2),"%)")</f>
+        <v>37 (2.18%)</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J16," (",ROUND(Sheet2!J22,2),"%)")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="str">
+        <f>_xlfn.CONCAT("Deprived: one partner"," (n = ",Sheet2!K14,")")</f>
+        <v>Deprived: one partner (n = 2470)</v>
+      </c>
+      <c r="C35" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E14," (",ROUND(Sheet2!E20,2),"%)")</f>
+        <v>35 (1.42%)</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F14," (",ROUND(Sheet2!F20,2),"%)")</f>
+        <v>640 (25.91%)</v>
+      </c>
+      <c r="E35" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G14," (",ROUND(Sheet2!G20,2),"%)")</f>
+        <v>825 (33.4%)</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H14," (",ROUND(Sheet2!H20,2),"%)")</f>
+        <v>731 (29.6%)</v>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I14," (",ROUND(Sheet2!I20,2),"%)")</f>
+        <v>239 (9.68%)</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J14," (",ROUND(Sheet2!J20,2),"%)")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="str">
+        <f>_xlfn.CONCAT("Deprived: me"," (n = ",Sheet2!V34,")")</f>
+        <v>Deprived: me (n = 1042)</v>
+      </c>
+      <c r="C36" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P34," (",ROUND(Sheet2!P43,2),"%)")</f>
+        <v>41 (3.93%)</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q34," (",ROUND(Sheet2!Q43,2),"%)")</f>
+        <v>274 (26.3%)</v>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R34," (",ROUND(Sheet2!R43,2),"%)")</f>
+        <v>266 (25.53%)</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S34," (",ROUND(Sheet2!S43,2),"%)")</f>
+        <v>285 (27.35%)</v>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T34," (",ROUND(Sheet2!T43,2),"%)")</f>
+        <v>148 (14.2%)</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U34," (",ROUND(Sheet2!U43,2),"%)")</f>
+        <v>28 (2.69%)</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="str">
+        <f>_xlfn.CONCAT("Deprived: partner"," (n = ",Sheet2!V39,")")</f>
+        <v>Deprived: partner (n = 1428)</v>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P39," (",ROUND(Sheet2!P48,2),"%)")</f>
+        <v>50 (3.5%)</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q39," (",ROUND(Sheet2!Q48,2),"%)")</f>
+        <v>382 (26.75%)</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R39," (",ROUND(Sheet2!R48,2),"%)")</f>
+        <v>385 (26.96%)</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S39," (",ROUND(Sheet2!S48,2),"%)")</f>
+        <v>341 (23.88%)</v>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T39," (",ROUND(Sheet2!T48,2),"%)")</f>
+        <v>229 (16.04%)</v>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U39," (",ROUND(Sheet2!U48,2),"%)")</f>
+        <v>41 (2.87%)</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="str">
+        <f>_xlfn.CONCAT("Saturated: both partners"," (n = ",Sheet2!V38,")")</f>
+        <v>Saturated: both partners (n = 45)</v>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E17," (",ROUND(Sheet2!P47,2),"%)")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F17," (",ROUND(Sheet2!Q47,2),"%)")</f>
+        <v>3 (11.11%)</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G17," (",ROUND(Sheet2!R47,2),"%)")</f>
+        <v>11 (20%)</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H17," (",ROUND(Sheet2!S47,2),"%)")</f>
+        <v>15 (31.11%)</v>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I17," (",ROUND(Sheet2!T47,2),"%)")</f>
+        <v>14 (26.67%)</v>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J17," (",ROUND(Sheet2!U47,2),"%)")</f>
+        <v>2 (11.11%)</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="str">
+        <f>_xlfn.CONCAT("Saturated: One Partner"," (n = ",Sheet2!K15,")")</f>
+        <v>Saturated: One Partner (n = 333)</v>
+      </c>
+      <c r="C39" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E15," (",ROUND(Sheet2!E21,2),"%)")</f>
+        <v>2 (0.6%)</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F15," (",ROUND(Sheet2!F21,2),"%)")</f>
+        <v>29 (8.71%)</v>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G15," (",ROUND(Sheet2!G21,2),"%)")</f>
+        <v>59 (17.72%)</v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H15," (",ROUND(Sheet2!H21,2),"%)")</f>
+        <v>139 (41.74%)</v>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I15," (",ROUND(Sheet2!I21,2),"%)")</f>
+        <v>98 (29.43%)</v>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J15," (",ROUND(Sheet2!J21,2),"%)")</f>
+        <v>6 (1.8%)</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="str">
+        <f>_xlfn.CONCAT("Saturated: me"," (n = ",Sheet2!V37,")")</f>
+        <v>Saturated: me (n = 142)</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P37," (",ROUND(Sheet2!P46,2),"%)")</f>
+        <v>2 (1.41%)</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q37," (",ROUND(Sheet2!Q46,2),"%)")</f>
+        <v>19 (13.38%)</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R37," (",ROUND(Sheet2!R46,2),"%)")</f>
+        <v>27 (19.01%)</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S37," (",ROUND(Sheet2!S46,2),"%)")</f>
+        <v>42 (29.58%)</v>
+      </c>
+      <c r="G40" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T37," (",ROUND(Sheet2!T46,2),"%)")</f>
+        <v>36 (25.35%)</v>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U37," (",ROUND(Sheet2!U46,2),"%)")</f>
+        <v>16 (11.27%)</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="str">
+        <f>_xlfn.CONCAT("Saturated: partner"," (n = ",Sheet2!V40,")")</f>
+        <v>Saturated: partner (n = 191)</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P40," (",ROUND(Sheet2!P49,2),"%)")</f>
+        <v>1 (0.52%)</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q40," (",ROUND(Sheet2!Q49,2),"%)")</f>
+        <v>17 (8.9%)</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R40," (",ROUND(Sheet2!R49,2),"%)")</f>
+        <v>30 (15.71%)</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S40," (",ROUND(Sheet2!S49,2),"%)")</f>
+        <v>66 (34.55%)</v>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T40," (",ROUND(Sheet2!T49,2),"%)")</f>
+        <v>58 (30.37%)</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U40," (",ROUND(Sheet2!U49,2),"%)")</f>
+        <v>19 (9.95%)</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="str">
+        <f>_xlfn.CONCAT("Mixed: one deprived, one saturated"," (n = ",Sheet2!K18,")")</f>
+        <v>Mixed: one deprived, one saturated (n = 330)</v>
+      </c>
+      <c r="C42" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!E18," (",ROUND(Sheet2!E24,2),"%)")</f>
+        <v>6 (1.82%)</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!F18," (",ROUND(Sheet2!F24,2),"%)")</f>
+        <v>89 (26.97%)</v>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!G18," (",ROUND(Sheet2!G24,2),"%)")</f>
+        <v>132 (40%)</v>
+      </c>
+      <c r="F42" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!H18," (",ROUND(Sheet2!H24,2),"%)")</f>
+        <v>73 (22.12%)</v>
+      </c>
+      <c r="G42" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!I18," (",ROUND(Sheet2!I24,2),"%)")</f>
+        <v>30 (9.09%)</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!J18," (",ROUND(Sheet2!J24,2),"%)")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="str">
+        <f>_xlfn.CONCAT("Me deprived, partner saturated"," (n = ",Sheet2!V36,")")</f>
+        <v>Me deprived, partner saturated (n = 146)</v>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P36," (",ROUND(Sheet2!P45,2),"%)")</f>
+        <v>5 (3.42%)</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q36," (",ROUND(Sheet2!Q45,2),"%)")</f>
+        <v>43 (29.45%)</v>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R36," (",ROUND(Sheet2!R45,2),"%)")</f>
+        <v>41 (28.08%)</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S36," (",ROUND(Sheet2!S45,2),"%)")</f>
+        <v>36 (24.66%)</v>
+      </c>
+      <c r="G43" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T36," (",ROUND(Sheet2!T45,2),"%)")</f>
+        <v>18 (12.33%)</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U36," (",ROUND(Sheet2!U45,2),"%)")</f>
+        <v>3 (2.05%)</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="str">
+        <f>_xlfn.CONCAT("Me saturated, partner deprived"," (n = ",Sheet2!V41,")")</f>
+        <v>Me saturated, partner deprived (n = 184)</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!P41," (",ROUND(Sheet2!P50,2),"%)")</f>
+        <v>8 (4.35%)</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!Q41," (",ROUND(Sheet2!Q50,2),"%)")</f>
+        <v>52 (28.26%)</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!R41," (",ROUND(Sheet2!R50,2),"%)")</f>
+        <v>55 (29.89%)</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!S41," (",ROUND(Sheet2!S50,2),"%)")</f>
+        <v>42 (22.83%)</v>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!T41," (",ROUND(Sheet2!T50,2),"%)")</f>
+        <v>24 (13.04%)</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>_xlfn.CONCAT(Sheet2!U41," (",ROUND(Sheet2!U50,2),"%)")</f>
+        <v>3 (1.63%)</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1240,34 +1704,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E75B23-68A5-4470-87E7-2F2D0D7D6C48}">
-  <dimension ref="B4:V32"/>
+  <dimension ref="B4:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50:U50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="15" max="15" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
       <c r="P9">
         <v>0</v>
@@ -1288,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0</v>
       </c>
@@ -1326,7 +1790,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1348,6 +1812,10 @@
       <c r="J11">
         <v>109</v>
       </c>
+      <c r="K11">
+        <f>SUM(E11:J11)</f>
+        <v>6800</v>
+      </c>
       <c r="P11" s="3">
         <v>3.36029411764705</v>
       </c>
@@ -1367,7 +1835,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E12" s="3">
         <v>1.3970588235294099</v>
       </c>
@@ -1412,7 +1880,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1932,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1984,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +2036,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6800</v>
       </c>
@@ -1627,7 +2095,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +2147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +2199,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +2253,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +2307,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +2363,7 @@
         <v>13.820926600728788</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +2419,7 @@
         <v>2.7351247600767756</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2531,7 @@
         <v>2.0547945205479454</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>21</v>
       </c>
@@ -2091,8 +2559,12 @@
         <f t="shared" si="12"/>
         <v>11.267605633802816</v>
       </c>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="Y25">
+        <f>292/2</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2592,12 @@
         <f t="shared" si="13"/>
         <v>12.222222222222221</v>
       </c>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.35">
+      <c r="Y26">
+        <f>V20/2</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
       <c r="O27" t="s">
         <v>23</v>
       </c>
@@ -2150,7 +2626,7 @@
         <v>2.8711484593837535</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
       <c r="O28" t="s">
         <v>24</v>
       </c>
@@ -2179,7 +2655,7 @@
         <v>10.209424083769633</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:25" x14ac:dyDescent="0.25">
       <c r="O29" t="s">
         <v>25</v>
       </c>
@@ -2208,11 +2684,586 @@
         <v>1.9021739130434783</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
       <c r="F32">
         <f>95*100/6800</f>
         <v>1.3970588235294117</v>
       </c>
+    </row>
+    <row r="33" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33">
+        <f>ROUND(P12/2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <f>ROUNDDOWN(Q12/2,0)</f>
+        <v>193</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="Q33:U33" si="17">ROUND(R12/2,0)</f>
+        <v>349</v>
+      </c>
+      <c r="S33">
+        <f>ROUNDDOWN(S12/2,0)</f>
+        <v>552</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="17"/>
+        <v>550</v>
+      </c>
+      <c r="U33">
+        <f>ROUNDDOWN(U12/2,0)</f>
+        <v>265</v>
+      </c>
+      <c r="V33">
+        <f>SUM(P33:U33)</f>
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="34" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:U46" si="18">ROUND(P13/2,0)</f>
+        <v>41</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q41" si="19">ROUNDDOWN(Q13/2,0)</f>
+        <v>274</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34:S41" si="20">ROUNDDOWN(S13/2,0)</f>
+        <v>285</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="18"/>
+        <v>148</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U41" si="21">ROUNDDOWN(U13/2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34:V41" si="22">SUM(P34:U34)</f>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>112</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="19"/>
+        <v>735</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="18"/>
+        <v>478</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="22"/>
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="36" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="R36">
+        <f>ROUNDDOWN(R15/2,0)</f>
+        <v>41</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="U36">
+        <f>ROUNDDOWN(U15/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="22"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="22"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="19"/>
+        <v>382</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="18"/>
+        <v>385</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="20"/>
+        <v>341</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="18"/>
+        <v>229</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="21"/>
+        <v>41</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="22"/>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="40" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40">
+        <f>ROUND(P19/2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f>ROUND(Q19/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="20"/>
+        <v>66</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="22"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(P20/2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="Q41:U41" si="23">ROUND(R20/2,0)</f>
+        <v>55</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="T41">
+        <f>ROUNDDOWN(T20/2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="22"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="L42" s="5"/>
+      <c r="O42" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="3">
+        <f>P33*100/$V$33</f>
+        <v>0.62467464862051014</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" ref="Q42:U42" si="24">Q33*100/$V$33</f>
+        <v>10.046850598646538</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="24"/>
+        <v>18.167621030713171</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="24"/>
+        <v>28.735033836543465</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="24"/>
+        <v>28.630921395106714</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="24"/>
+        <v>13.794898490369599</v>
+      </c>
+    </row>
+    <row r="43" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="L43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="3">
+        <f>P34*100/$V$34</f>
+        <v>3.9347408829174664</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" ref="Q43:U43" si="25">Q34*100/$V$34</f>
+        <v>26.295585412667947</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="25"/>
+        <v>25.527831094049905</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="25"/>
+        <v>27.351247600767753</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="25"/>
+        <v>14.203454894433781</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="25"/>
+        <v>2.6871401151631478</v>
+      </c>
+    </row>
+    <row r="44" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="3">
+        <f>P35*100/$V$35</f>
+        <v>6.5843621399176957</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" ref="Q44:U44" si="26">Q35*100/$V$35</f>
+        <v>43.209876543209873</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="26"/>
+        <v>28.101116990005877</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="26"/>
+        <v>16.93121693121693</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="26"/>
+        <v>5.1734273956496182</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K45" s="5"/>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="3">
+        <f>P36*100/$V$36</f>
+        <v>3.4246575342465753</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" ref="Q45:U45" si="27">Q36*100/$V$36</f>
+        <v>29.452054794520549</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="27"/>
+        <v>28.082191780821919</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="27"/>
+        <v>24.657534246575342</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="27"/>
+        <v>12.328767123287671</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="27"/>
+        <v>2.0547945205479454</v>
+      </c>
+    </row>
+    <row r="46" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="3">
+        <f>P37*100/$V$37</f>
+        <v>1.408450704225352</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" ref="Q46:U46" si="28">Q37*100/$V$37</f>
+        <v>13.380281690140846</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="28"/>
+        <v>19.014084507042252</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="28"/>
+        <v>29.577464788732396</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="28"/>
+        <v>25.35211267605634</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="28"/>
+        <v>11.267605633802816</v>
+      </c>
+    </row>
+    <row r="47" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="O47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="3">
+        <f>P38*100/$V$38</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" ref="Q47:U47" si="29">Q38*100/$V$38</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="29"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="29"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="29"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="3">
+        <f>P39*100/$V$39</f>
+        <v>3.5014005602240896</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" ref="Q48:U48" si="30">Q39*100/$V$39</f>
+        <v>26.750700280112046</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="30"/>
+        <v>26.96078431372549</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="30"/>
+        <v>23.879551820728292</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="30"/>
+        <v>16.03641456582633</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="30"/>
+        <v>2.8711484593837535</v>
+      </c>
+    </row>
+    <row r="49" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="O49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" s="3">
+        <f>P40*100/$V$40</f>
+        <v>0.52356020942408377</v>
+      </c>
+      <c r="Q49" s="3">
+        <f t="shared" ref="Q49:U49" si="31">Q40*100/$V$40</f>
+        <v>8.9005235602094235</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" si="31"/>
+        <v>15.706806282722512</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="31"/>
+        <v>34.554973821989527</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="31"/>
+        <v>30.366492146596858</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="31"/>
+        <v>9.9476439790575917</v>
+      </c>
+    </row>
+    <row r="50" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="O50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P50" s="3">
+        <f>P41*100/$V$41</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="Q50" s="3">
+        <f t="shared" ref="Q50:U50" si="32">Q41*100/$V$41</f>
+        <v>28.260869565217391</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" si="32"/>
+        <v>29.891304347826086</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="32"/>
+        <v>22.826086956521738</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="32"/>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="32"/>
+        <v>1.6304347826086956</v>
+      </c>
+    </row>
+    <row r="52" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="55" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K57" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/output/tables.xlsx
+++ b/output/tables.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9232D999-F160-451F-A909-B260FBE13849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7597F61-002A-48BD-B749-466A387BB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="2430" windowWidth="17610" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="200">
   <si>
     <t>Sample</t>
   </si>
@@ -145,6 +148,665 @@
   </si>
   <si>
     <t>mixed partner</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Dyad</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Age difference</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Sexual orientation</t>
+  </si>
+  <si>
+    <t>Homesexual</t>
+  </si>
+  <si>
+    <t>Heterosexual</t>
+  </si>
+  <si>
+    <t>18-79</t>
+  </si>
+  <si>
+    <t>18-65</t>
+  </si>
+  <si>
+    <t>± 10 years</t>
+  </si>
+  <si>
+    <t>Education ISCED-11</t>
+  </si>
+  <si>
+    <t>ISCED 0: Early childhood education (‘less than primary’ for educational attainment)</t>
+  </si>
+  <si>
+    <t>ISCED 1: Primary education</t>
+  </si>
+  <si>
+    <t>ISCED 2: Lower secondary education</t>
+  </si>
+  <si>
+    <t>ISCED 3: Upper secondary education</t>
+  </si>
+  <si>
+    <t>ISCED 4: Post-secondary non-tertiary education</t>
+  </si>
+  <si>
+    <t>ISCED 5: Short-cycle tertiary education</t>
+  </si>
+  <si>
+    <t>ISCED 6: Bachelor’s or equivalent level</t>
+  </si>
+  <si>
+    <t>ISCED 7: Master’s or equivalent level</t>
+  </si>
+  <si>
+    <t>ISCED 8: Doctoral or equivalent level</t>
+  </si>
+  <si>
+    <t>Less than primary education</t>
+  </si>
+  <si>
+    <t>Primary education</t>
+  </si>
+  <si>
+    <t>secondary education</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>hom</t>
+  </si>
+  <si>
+    <t>Depressiveness</t>
+  </si>
+  <si>
+    <t>Loneliness</t>
+  </si>
+  <si>
+    <t>Self-esteem</t>
+  </si>
+  <si>
+    <t>Life Satisfaction</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <r>
+      <t>Subgroups division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Deprived: both</t>
+  </si>
+  <si>
+    <t>Saturated: both</t>
+  </si>
+  <si>
+    <t>Mixed: me deprived, partner saturated</t>
+  </si>
+  <si>
+    <t>Mixed: me saturated, partner deprived</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>I renamed the categories and brought them in a more intuitive order --&gt; can you adopt this for the figures?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'Deprived: Partner'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Deprived: Me'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Deprived: Both'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'Saturated: Partner'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Saturated: Me'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Saturated: Both'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'Mixed: Me deprived,partner saturated'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Mixed: Me saturated,partner deprived'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>6 to 10 times</t>
+  </si>
+  <si>
+    <t>Whole Sample</t>
+  </si>
+  <si>
+    <t>1945 (28.6%)</t>
+  </si>
+  <si>
+    <t>1876 (27.59%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Satisfied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>n = 1921 (28.3%)</t>
+  </si>
+  <si>
+    <t>676 (35.19%)</t>
+  </si>
+  <si>
+    <t>n = 1701 (25.0%)</t>
+  </si>
+  <si>
+    <t>242 (14.23%)</t>
+  </si>
+  <si>
+    <t>Deprived: one partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n = 2470 (36.3%)</t>
+  </si>
+  <si>
+    <t>239 (9.68%)</t>
+  </si>
+  <si>
+    <t>Deprived: me (n = 1042)</t>
+  </si>
+  <si>
+    <t>41 (3.93%)</t>
+  </si>
+  <si>
+    <t>274 (26.3%)</t>
+  </si>
+  <si>
+    <t>266 (25.53%)</t>
+  </si>
+  <si>
+    <t>285 (27.35%)</t>
+  </si>
+  <si>
+    <t>148 (14.2%)</t>
+  </si>
+  <si>
+    <t>28 (2.69%)</t>
+  </si>
+  <si>
+    <t>Deprived: partner (n = 1428)</t>
+  </si>
+  <si>
+    <t>50 (3.5%)</t>
+  </si>
+  <si>
+    <t>382 (26.75%)</t>
+  </si>
+  <si>
+    <t>385 (26.96%)</t>
+  </si>
+  <si>
+    <t>341 (23.88%)</t>
+  </si>
+  <si>
+    <t>229 (16.04%)</t>
+  </si>
+  <si>
+    <t>41 (2.87%)</t>
+  </si>
+  <si>
+    <t>n = 45 (0.7%)</t>
+  </si>
+  <si>
+    <t>Saturated: One Partner</t>
+  </si>
+  <si>
+    <t>n = 333 (3.9%)</t>
+  </si>
+  <si>
+    <t>139 (41.74%)</t>
+  </si>
+  <si>
+    <t>Saturated: me (n = 142)</t>
+  </si>
+  <si>
+    <t>2 (1.41%)</t>
+  </si>
+  <si>
+    <t>19 (13.38%)</t>
+  </si>
+  <si>
+    <t>27 (19.01%)</t>
+  </si>
+  <si>
+    <t>42 (29.58%)</t>
+  </si>
+  <si>
+    <t>36 (25.35%)</t>
+  </si>
+  <si>
+    <t>16 (11.27%)</t>
+  </si>
+  <si>
+    <t>Saturated: partner (n = 191)</t>
+  </si>
+  <si>
+    <t>1 (0.52%)</t>
+  </si>
+  <si>
+    <t>17 (8.9%)</t>
+  </si>
+  <si>
+    <t>30 (15.71%)</t>
+  </si>
+  <si>
+    <t>66 (34.55%)</t>
+  </si>
+  <si>
+    <t>58 (30.37%)</t>
+  </si>
+  <si>
+    <t>19 (9.95%)</t>
+  </si>
+  <si>
+    <t>n = 330 (4.9%)</t>
+  </si>
+  <si>
+    <t>Me deprived, partner saturated (n = 146)</t>
+  </si>
+  <si>
+    <t>5 (3.42%)</t>
+  </si>
+  <si>
+    <t>43 (29.45%)</t>
+  </si>
+  <si>
+    <t>41 (28.08%)</t>
+  </si>
+  <si>
+    <t>36 (24.66%)</t>
+  </si>
+  <si>
+    <t>18 (12.33%)</t>
+  </si>
+  <si>
+    <t>3 (2.05%)</t>
+  </si>
+  <si>
+    <t>Me saturated, partner deprived (n = 184)</t>
+  </si>
+  <si>
+    <t>8 (4.35%)</t>
+  </si>
+  <si>
+    <t>52 (28.26%)</t>
+  </si>
+  <si>
+    <t>55 (29.89%)</t>
+  </si>
+  <si>
+    <t>42 (22.83%)</t>
+  </si>
+  <si>
+    <t>24 (13.04%)</t>
+  </si>
+  <si>
+    <t>3 (1.63%)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>I renamed the groups, I think this is more intuitive for the reader (and satisfied seems more correct than alligned, because they may report different frequencies )</t>
+    </r>
+  </si>
+  <si>
+    <t>Saturated: both partners</t>
+  </si>
+  <si>
+    <t>Mixed: one deprived, one saturated</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Openness</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Neuroticism</t>
+  </si>
+  <si>
+    <t>9,42</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>11,10</t>
+  </si>
+  <si>
+    <t>11,06</t>
+  </si>
+  <si>
+    <t>7,62</t>
+  </si>
+  <si>
+    <t>9,33</t>
+  </si>
+  <si>
+    <t>9,97</t>
+  </si>
+  <si>
+    <t>11,00</t>
+  </si>
+  <si>
+    <t>11,02</t>
+  </si>
+  <si>
+    <t>7,96</t>
+  </si>
+  <si>
+    <t>9,21</t>
+  </si>
+  <si>
+    <t>9,74</t>
+  </si>
+  <si>
+    <t>10,77</t>
+  </si>
+  <si>
+    <t>10,93</t>
+  </si>
+  <si>
+    <t>8,28</t>
+  </si>
+  <si>
+    <t>9,29</t>
+  </si>
+  <si>
+    <t>10,04</t>
+  </si>
+  <si>
+    <t>10,69</t>
+  </si>
+  <si>
+    <t>10,82</t>
+  </si>
+  <si>
+    <t>8,24</t>
+  </si>
+  <si>
+    <t>9,38</t>
+  </si>
+  <si>
+    <t>11,07</t>
+  </si>
+  <si>
+    <t>8,07</t>
+  </si>
+  <si>
+    <t>10,06</t>
+  </si>
+  <si>
+    <t>9,54</t>
+  </si>
+  <si>
+    <t>10,52</t>
+  </si>
+  <si>
+    <t>11,57</t>
+  </si>
+  <si>
+    <t>7,79</t>
+  </si>
+  <si>
+    <t>9,28</t>
+  </si>
+  <si>
+    <t>9,90</t>
+  </si>
+  <si>
+    <t>10,95</t>
+  </si>
+  <si>
+    <t>10,94</t>
+  </si>
+  <si>
+    <t>8,01</t>
+  </si>
+  <si>
+    <t>9,51</t>
+  </si>
+  <si>
+    <t>10,05</t>
+  </si>
+  <si>
+    <t>11,09</t>
+  </si>
+  <si>
+    <t>10,98</t>
+  </si>
+  <si>
+    <t>7,95</t>
+  </si>
+  <si>
+    <t>9,23</t>
+  </si>
+  <si>
+    <t>9,80</t>
+  </si>
+  <si>
+    <t>10,89</t>
+  </si>
+  <si>
+    <t>10,90</t>
+  </si>
+  <si>
+    <t>8,43</t>
+  </si>
+  <si>
+    <t>Communication Quality</t>
+  </si>
+  <si>
+    <t>Relationship Satisfaction</t>
+  </si>
+  <si>
+    <t>Conflict Management</t>
   </si>
 </sst>
 </file>
@@ -154,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +836,48 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF032F62"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A737D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,10 +887,95 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -195,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +1001,113 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,22 +1392,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -531,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +1460,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -601,7 +1497,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -638,7 +1534,7 @@
         <v>36.323529411764703</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -675,7 +1571,7 @@
         <v>4.8970588235294121</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -712,7 +1608,7 @@
         <v>25.014705882352942</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +1645,7 @@
         <v>0.66176470588235292</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,7 +1682,7 @@
         <v>4.8529411764705879</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -794,7 +1690,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -808,7 +1704,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -825,7 +1721,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -842,7 +1738,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -857,7 +1753,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -872,7 +1768,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -886,7 +1782,7 @@
         <v>-1.3333333333333299</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -900,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -923,7 +1819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1848,7 @@
         <v>765 (5.63%)</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -981,7 +1877,7 @@
         <v>531 (13.82%)</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1010,7 +1906,7 @@
         <v>57 (2.74%)</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1935,7 @@
         <v>0 (0%)</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1964,7 @@
         <v>6 (2.05%)</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1993,7 @@
         <v>32 (11.27%)</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -1126,7 +2022,7 @@
         <v>11 (12.22%)</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +2051,7 @@
         <v>82 (2.87%)</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +2080,7 @@
         <v>39 (10.21%)</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
@@ -1213,13 +2109,13 @@
         <v>7 (1.9%)</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -1241,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="str">
         <f>_xlfn.CONCAT("Whole Sample"," (n = ",Sheet2!K11,")")</f>
@@ -1273,7 +2169,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="str">
         <f>_xlfn.CONCAT("Satisfied"," (n = ",Sheet2!K13,")")</f>
@@ -1305,7 +2201,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="str">
         <f>_xlfn.CONCAT("Deprived: both partners"," (n = ",Sheet2!K16,")")</f>
@@ -1337,7 +2233,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="str">
         <f>_xlfn.CONCAT("Deprived: one partner"," (n = ",Sheet2!K14,")")</f>
@@ -1369,7 +2265,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="str">
         <f>_xlfn.CONCAT("Deprived: me"," (n = ",Sheet2!V34,")")</f>
@@ -1401,7 +2297,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="str">
         <f>_xlfn.CONCAT("Deprived: partner"," (n = ",Sheet2!V39,")")</f>
@@ -1433,7 +2329,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="str">
         <f>_xlfn.CONCAT("Saturated: both partners"," (n = ",Sheet2!V38,")")</f>
@@ -1465,7 +2361,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="str">
         <f>_xlfn.CONCAT("Saturated: One Partner"," (n = ",Sheet2!K15,")")</f>
@@ -1497,7 +2393,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="str">
         <f>_xlfn.CONCAT("Saturated: me"," (n = ",Sheet2!V37,")")</f>
@@ -1529,7 +2425,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="str">
         <f>_xlfn.CONCAT("Saturated: partner"," (n = ",Sheet2!V40,")")</f>
@@ -1561,7 +2457,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="str">
         <f>_xlfn.CONCAT("Mixed: one deprived, one saturated"," (n = ",Sheet2!K18,")")</f>
@@ -1593,7 +2489,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="str">
         <f>_xlfn.CONCAT("Me deprived, partner saturated"," (n = ",Sheet2!V36,")")</f>
@@ -1625,7 +2521,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="str">
         <f>_xlfn.CONCAT("Me saturated, partner deprived"," (n = ",Sheet2!V41,")")</f>
@@ -1657,43 +2553,43 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="B53" s="6"/>
     </row>
   </sheetData>
@@ -1706,32 +2602,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E75B23-68A5-4470-87E7-2F2D0D7D6C48}">
   <dimension ref="B4:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
+    <sheetView topLeftCell="K16" workbookViewId="0">
       <selection activeCell="P50" sqref="P50:U50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22">
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22">
       <c r="F9" s="3"/>
       <c r="P9">
         <v>0</v>
@@ -1752,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22">
       <c r="E10">
         <v>0</v>
       </c>
@@ -1790,7 +2686,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +2731,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22">
       <c r="E12" s="3">
         <v>1.3970588235294099</v>
       </c>
@@ -1880,7 +2776,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22">
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +2828,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22">
       <c r="D14" t="s">
         <v>3</v>
       </c>
@@ -1984,7 +2880,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22">
       <c r="D15" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2932,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22">
       <c r="B16">
         <v>6800</v>
       </c>
@@ -2095,7 +2991,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:25">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +3043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:25">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +3095,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:25">
       <c r="D19" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +3149,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:25">
       <c r="D20" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +3203,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:25">
       <c r="D21" t="s">
         <v>2</v>
       </c>
@@ -2363,7 +3259,7 @@
         <v>13.820926600728788</v>
       </c>
     </row>
-    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:25">
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +3315,7 @@
         <v>2.7351247600767756</v>
       </c>
     </row>
-    <row r="23" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:25">
       <c r="D23" t="s">
         <v>5</v>
       </c>
@@ -2475,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:25">
       <c r="D24" t="s">
         <v>6</v>
       </c>
@@ -2531,7 +3427,7 @@
         <v>2.0547945205479454</v>
       </c>
     </row>
-    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:25">
       <c r="O25" t="s">
         <v>21</v>
       </c>
@@ -2564,7 +3460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:25">
       <c r="O26" t="s">
         <v>22</v>
       </c>
@@ -2597,7 +3493,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:25">
       <c r="O27" t="s">
         <v>23</v>
       </c>
@@ -2626,7 +3522,7 @@
         <v>2.8711484593837535</v>
       </c>
     </row>
-    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:25">
       <c r="O28" t="s">
         <v>24</v>
       </c>
@@ -2655,7 +3551,7 @@
         <v>10.209424083769633</v>
       </c>
     </row>
-    <row r="29" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:25">
       <c r="O29" t="s">
         <v>25</v>
       </c>
@@ -2684,13 +3580,13 @@
         <v>1.9021739130434783</v>
       </c>
     </row>
-    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:25">
       <c r="F32">
         <f>95*100/6800</f>
         <v>1.3970588235294117</v>
       </c>
     </row>
-    <row r="33" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:22">
       <c r="O33" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +3599,7 @@
         <v>193</v>
       </c>
       <c r="R33">
-        <f t="shared" ref="Q33:U33" si="17">ROUND(R12/2,0)</f>
+        <f t="shared" ref="R33:T33" si="17">ROUND(R12/2,0)</f>
         <v>349</v>
       </c>
       <c r="S33">
@@ -2723,12 +3619,12 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="34" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:22">
       <c r="O34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:U46" si="18">ROUND(P13/2,0)</f>
+        <f t="shared" ref="P34:T40" si="18">ROUND(P13/2,0)</f>
         <v>41</v>
       </c>
       <c r="Q34">
@@ -2756,7 +3652,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="35" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:22">
       <c r="O35" s="5" t="s">
         <v>26</v>
       </c>
@@ -2789,7 +3685,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="36" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:22">
       <c r="O36" t="s">
         <v>34</v>
       </c>
@@ -2822,7 +3718,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:22">
       <c r="O37" s="5" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +3751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:22">
       <c r="O38" s="5" t="s">
         <v>29</v>
       </c>
@@ -2888,7 +3784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:22">
       <c r="O39" s="5" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +3817,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="40" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:22">
       <c r="O40" s="5" t="s">
         <v>31</v>
       </c>
@@ -2954,7 +3850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:22">
       <c r="O41" s="5" t="s">
         <v>35</v>
       </c>
@@ -2967,7 +3863,7 @@
         <v>52</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="Q41:U41" si="23">ROUND(R20/2,0)</f>
+        <f t="shared" ref="R41" si="23">ROUND(R20/2,0)</f>
         <v>55</v>
       </c>
       <c r="S41">
@@ -2987,7 +3883,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:22">
       <c r="L42" s="5"/>
       <c r="O42" t="s">
         <v>33</v>
@@ -3017,7 +3913,7 @@
         <v>13.794898490369599</v>
       </c>
     </row>
-    <row r="43" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:22">
       <c r="L43" s="5"/>
       <c r="O43" s="5" t="s">
         <v>27</v>
@@ -3047,7 +3943,7 @@
         <v>2.6871401151631478</v>
       </c>
     </row>
-    <row r="44" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:22">
       <c r="O44" s="5" t="s">
         <v>26</v>
       </c>
@@ -3076,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:22">
       <c r="K45" s="5"/>
       <c r="O45" t="s">
         <v>34</v>
@@ -3106,7 +4002,7 @@
         <v>2.0547945205479454</v>
       </c>
     </row>
-    <row r="46" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:22">
       <c r="K46" s="5"/>
       <c r="O46" s="5" t="s">
         <v>30</v>
@@ -3136,7 +4032,7 @@
         <v>11.267605633802816</v>
       </c>
     </row>
-    <row r="47" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:22">
       <c r="O47" s="5" t="s">
         <v>29</v>
       </c>
@@ -3165,7 +4061,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="48" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:22">
       <c r="K48" s="5"/>
       <c r="O48" s="5" t="s">
         <v>28</v>
@@ -3195,7 +4091,7 @@
         <v>2.8711484593837535</v>
       </c>
     </row>
-    <row r="49" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:21">
       <c r="O49" s="5" t="s">
         <v>31</v>
       </c>
@@ -3224,7 +4120,7 @@
         <v>9.9476439790575917</v>
       </c>
     </row>
-    <row r="50" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:21">
       <c r="O50" s="5" t="s">
         <v>35</v>
       </c>
@@ -3253,20 +4149,2518 @@
         <v>1.6304347826086956</v>
       </c>
     </row>
-    <row r="52" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:21">
       <c r="K52" s="5"/>
     </row>
-    <row r="55" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:21">
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:21">
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:21">
       <c r="K57" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F53505-7D48-4A24-848D-448A31421B66}">
+  <dimension ref="B2:N56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C34" sqref="B34:C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="46.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="15" thickBot="1"/>
+    <row r="3" spans="2:14" ht="15" thickBot="1">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1">
+      <c r="C4" s="14"/>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
+      <c r="B5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="20">
+        <v>36.678310000000003</v>
+      </c>
+      <c r="F5" s="20">
+        <v>8.5350599999999996</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1">
+      <c r="B6" s="23"/>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="20">
+        <v>35.560319999999997</v>
+      </c>
+      <c r="F6" s="20">
+        <v>8.1115999999999993</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1">
+      <c r="B7" s="23"/>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="20">
+        <v>37.816029999999998</v>
+      </c>
+      <c r="F7" s="20">
+        <v>8.7943499999999997</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1">
+      <c r="B8" s="23"/>
+      <c r="C8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8.4260000000000002E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.5531699999999999</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="29.5" thickBot="1">
+      <c r="B10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="19">
+        <v>205</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1.5073529411764706</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>2498</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="29.5" customHeight="1" thickBot="1">
+      <c r="B11" s="24"/>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="19">
+        <v>79</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.58088235294117652</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>518</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1">
+      <c r="B12" s="24"/>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5102</v>
+      </c>
+      <c r="E12" s="18">
+        <v>37.514705882352942</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="N12" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1">
+      <c r="B13" s="24"/>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="19">
+        <v>4195</v>
+      </c>
+      <c r="E13" s="18">
+        <v>30.845588235294116</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="J13" s="9"/>
+      <c r="N13" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1">
+      <c r="B14" s="24"/>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2498</v>
+      </c>
+      <c r="E14" s="18">
+        <v>18.367647058823529</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="J14" s="10"/>
+      <c r="N14" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1">
+      <c r="B15" s="13"/>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="19">
+        <v>518</v>
+      </c>
+      <c r="E15" s="18">
+        <v>3.8088235294117645</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="N15" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1">
+      <c r="B16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6805</v>
+      </c>
+      <c r="E16" s="18">
+        <v>50.036764705882355</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="N16" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15" thickBot="1">
+      <c r="B17" s="24"/>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="14">
+        <v>6773</v>
+      </c>
+      <c r="E17" s="18">
+        <v>49.801470588235297</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="N17" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="14">
+        <v>22</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.16176470588235295</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="N18" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="29.5" thickBot="1">
+      <c r="B19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8">
+        <v>13142</v>
+      </c>
+      <c r="E19" s="22">
+        <v>96.632352941176464</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="2:14" ht="29.5" customHeight="1" thickBot="1">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="8">
+        <v>458</v>
+      </c>
+      <c r="E20" s="22">
+        <v>3.3676470588235294</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <f>L4</f>
+        <v>205</v>
+      </c>
+      <c r="N22">
+        <f>M22*100/$N$29</f>
+        <v>1.5073529411764706</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23">
+        <f>SUM(L5)</f>
+        <v>79</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N27" si="0">M23*100/$N$29</f>
+        <v>0.58088235294117652</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="L24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24">
+        <f>SUM(L6:L8)</f>
+        <v>5102</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>37.514705882352942</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25">
+        <f>L9</f>
+        <v>4195</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>30.845588235294116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M27" si="1">L10</f>
+        <v>2498</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>18.367647058823529</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>3.8088235294117645</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="N29">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15" thickBot="1">
+      <c r="L32">
+        <v>6805</v>
+      </c>
+      <c r="M32">
+        <f>L32*100/$N$29</f>
+        <v>50.036764705882355</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="16.5" thickBot="1">
+      <c r="C33" s="26"/>
+      <c r="D33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33">
+        <v>6773</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M38" si="2">L33*100/$N$29</f>
+        <v>49.801470588235297</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="29">
+        <v>4.82</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1.61</v>
+      </c>
+      <c r="F34" s="29">
+        <v>11.93</v>
+      </c>
+      <c r="G34" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H34" s="29">
+        <v>3.91</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0.16176470588235295</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B35" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E35" s="29">
+        <v>1.87</v>
+      </c>
+      <c r="F35" s="29">
+        <v>11.44</v>
+      </c>
+      <c r="G35" s="29">
+        <v>7.89</v>
+      </c>
+      <c r="H35" s="29">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B36" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="29">
+        <v>5.25</v>
+      </c>
+      <c r="E36" s="29">
+        <v>2.06</v>
+      </c>
+      <c r="F36" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="G36" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="H36" s="29">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B37" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="29">
+        <v>5.41</v>
+      </c>
+      <c r="E37" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="F37" s="29">
+        <v>11.19</v>
+      </c>
+      <c r="G37" s="29">
+        <v>7.62</v>
+      </c>
+      <c r="H37" s="29">
+        <v>3.66</v>
+      </c>
+      <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37">
+        <v>13142</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>96.632352941176464</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="E38" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="F38" s="29">
+        <v>11.31</v>
+      </c>
+      <c r="G38" s="29">
+        <v>7.82</v>
+      </c>
+      <c r="H38" s="29">
+        <v>3.81</v>
+      </c>
+      <c r="K38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="21">
+        <v>458</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>3.3676470588235294</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B39" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="29">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="F39" s="29">
+        <v>11.56</v>
+      </c>
+      <c r="G39" s="29">
+        <v>8.18</v>
+      </c>
+      <c r="H39" s="29">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E40" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="F40" s="29">
+        <v>11.44</v>
+      </c>
+      <c r="G40" s="29">
+        <v>7.83</v>
+      </c>
+      <c r="H40" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E41" s="29">
+        <v>1.79</v>
+      </c>
+      <c r="F41" s="29">
+        <v>11.47</v>
+      </c>
+      <c r="G41" s="29">
+        <v>7.96</v>
+      </c>
+      <c r="H41" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B42" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="29">
+        <v>5.48</v>
+      </c>
+      <c r="E42" s="29">
+        <v>2.23</v>
+      </c>
+      <c r="F42" s="29">
+        <v>10.8</v>
+      </c>
+      <c r="G42" s="29">
+        <v>7.38</v>
+      </c>
+      <c r="H42" s="29">
+        <v>3.64</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15" thickBot="1"/>
+    <row r="46" spans="2:14" ht="16.5" thickBot="1">
+      <c r="C46" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B48" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="2:9" ht="16.5" thickBot="1">
+      <c r="C49" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B50" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="2:9" ht="16.5" thickBot="1">
+      <c r="C51" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" thickBot="1">
+      <c r="C52" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="2:9" ht="16.5" thickBot="1">
+      <c r="C53" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="2:9" ht="32.5" thickBot="1">
+      <c r="B54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:9" ht="32.5" thickBot="1">
+      <c r="B55" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="C56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ED060-DE75-408C-900D-C7194229C0DE}">
+  <dimension ref="A4:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="51.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:21" ht="15" thickBot="1"/>
+    <row r="5" spans="4:21" ht="16.5" thickBot="1">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="4:21" ht="15" thickBot="1">
+      <c r="D6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="29">
+        <v>4.82</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1.61</v>
+      </c>
+      <c r="N6" s="29">
+        <v>11.93</v>
+      </c>
+      <c r="O6" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P6" s="29">
+        <v>3.91</v>
+      </c>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="29">
+        <v>23.44</v>
+      </c>
+      <c r="T6" s="29">
+        <v>9.31</v>
+      </c>
+      <c r="U6" s="29">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" ht="15" thickBot="1">
+      <c r="D7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1.87</v>
+      </c>
+      <c r="N7" s="29">
+        <v>11.44</v>
+      </c>
+      <c r="O7" s="29">
+        <v>7.89</v>
+      </c>
+      <c r="P7" s="29">
+        <v>3.79</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="29">
+        <v>21.94</v>
+      </c>
+      <c r="T7" s="29">
+        <v>8.65</v>
+      </c>
+      <c r="U7" s="29">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" ht="15" thickBot="1">
+      <c r="D8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="29">
+        <v>5.25</v>
+      </c>
+      <c r="M8" s="29">
+        <v>2.06</v>
+      </c>
+      <c r="N8" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="O8" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="P8" s="29">
+        <v>3.68</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="29">
+        <v>20.72</v>
+      </c>
+      <c r="T8" s="29">
+        <v>8.15</v>
+      </c>
+      <c r="U8" s="29">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" ht="15" thickBot="1">
+      <c r="D9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="29">
+        <v>5.41</v>
+      </c>
+      <c r="M9" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="N9" s="29">
+        <v>11.19</v>
+      </c>
+      <c r="O9" s="29">
+        <v>7.62</v>
+      </c>
+      <c r="P9" s="29">
+        <v>3.66</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="29">
+        <v>21.24</v>
+      </c>
+      <c r="T9" s="29">
+        <v>8.26</v>
+      </c>
+      <c r="U9" s="29">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" ht="15" thickBot="1">
+      <c r="D10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="N10" s="29">
+        <v>11.31</v>
+      </c>
+      <c r="O10" s="29">
+        <v>7.82</v>
+      </c>
+      <c r="P10" s="29">
+        <v>3.81</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="29">
+        <v>22.77</v>
+      </c>
+      <c r="T10" s="29">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="U10" s="29">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" ht="15" thickBot="1">
+      <c r="D11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="29">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="N11" s="29">
+        <v>11.56</v>
+      </c>
+      <c r="O11" s="29">
+        <v>8.18</v>
+      </c>
+      <c r="P11" s="29">
+        <v>3.71</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="29">
+        <v>22.95</v>
+      </c>
+      <c r="T11" s="29">
+        <v>8.9</v>
+      </c>
+      <c r="U11" s="29">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21" ht="15" thickBot="1">
+      <c r="D12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="N12" s="29">
+        <v>11.44</v>
+      </c>
+      <c r="O12" s="29">
+        <v>7.83</v>
+      </c>
+      <c r="P12" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="29">
+        <v>21.83</v>
+      </c>
+      <c r="T12" s="29">
+        <v>8.69</v>
+      </c>
+      <c r="U12" s="29">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" ht="15" thickBot="1">
+      <c r="D13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M13" s="29">
+        <v>1.79</v>
+      </c>
+      <c r="N13" s="29">
+        <v>11.47</v>
+      </c>
+      <c r="O13" s="29">
+        <v>7.96</v>
+      </c>
+      <c r="P13" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="29">
+        <v>22.92</v>
+      </c>
+      <c r="T13" s="29">
+        <v>9.01</v>
+      </c>
+      <c r="U13" s="29">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" ht="15" thickBot="1">
+      <c r="D14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="29">
+        <v>5.48</v>
+      </c>
+      <c r="M14" s="29">
+        <v>2.23</v>
+      </c>
+      <c r="N14" s="29">
+        <v>10.8</v>
+      </c>
+      <c r="O14" s="29">
+        <v>7.38</v>
+      </c>
+      <c r="P14" s="29">
+        <v>3.64</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="29">
+        <v>21.12</v>
+      </c>
+      <c r="T14" s="29">
+        <v>7.93</v>
+      </c>
+      <c r="U14" s="29">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" ht="15" thickBot="1"/>
+    <row r="16" spans="4:21" ht="15" thickBot="1">
+      <c r="E16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="L16" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="44"/>
+      <c r="S16" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="32.5" thickBot="1">
+      <c r="A17" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="29">
+        <v>4.82</v>
+      </c>
+      <c r="M17" s="29">
+        <v>1.61</v>
+      </c>
+      <c r="N17" s="29">
+        <v>11.93</v>
+      </c>
+      <c r="O17" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P17" s="29">
+        <v>3.91</v>
+      </c>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="29">
+        <v>23.44</v>
+      </c>
+      <c r="T17" s="29">
+        <v>9.31</v>
+      </c>
+      <c r="U17" s="29">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="32.5" thickBot="1">
+      <c r="A18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M18" s="29">
+        <v>1.87</v>
+      </c>
+      <c r="N18" s="29">
+        <v>11.44</v>
+      </c>
+      <c r="O18" s="29">
+        <v>7.89</v>
+      </c>
+      <c r="P18" s="29">
+        <v>3.79</v>
+      </c>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="29">
+        <v>21.94</v>
+      </c>
+      <c r="T18" s="29">
+        <v>8.65</v>
+      </c>
+      <c r="U18" s="29">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="48.5" thickBot="1">
+      <c r="A19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M19" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="N19" s="29">
+        <v>11.44</v>
+      </c>
+      <c r="O19" s="29">
+        <v>7.83</v>
+      </c>
+      <c r="P19" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="29">
+        <v>21.83</v>
+      </c>
+      <c r="T19" s="29">
+        <v>8.69</v>
+      </c>
+      <c r="U19" s="29">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="32.5" thickBot="1">
+      <c r="A20" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="29">
+        <v>5.25</v>
+      </c>
+      <c r="M20" s="29">
+        <v>2.06</v>
+      </c>
+      <c r="N20" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="O20" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="P20" s="29">
+        <v>3.68</v>
+      </c>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="29">
+        <v>20.72</v>
+      </c>
+      <c r="T20" s="29">
+        <v>8.15</v>
+      </c>
+      <c r="U20" s="29">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="32.5" thickBot="1">
+      <c r="A21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="M21" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="N21" s="29">
+        <v>11.31</v>
+      </c>
+      <c r="O21" s="29">
+        <v>7.82</v>
+      </c>
+      <c r="P21" s="29">
+        <v>3.81</v>
+      </c>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="29">
+        <v>22.77</v>
+      </c>
+      <c r="T21" s="29">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="U21" s="29">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="48.5" thickBot="1">
+      <c r="A22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M22" s="29">
+        <v>1.79</v>
+      </c>
+      <c r="N22" s="29">
+        <v>11.47</v>
+      </c>
+      <c r="O22" s="29">
+        <v>7.96</v>
+      </c>
+      <c r="P22" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="29">
+        <v>22.92</v>
+      </c>
+      <c r="T22" s="29">
+        <v>9.01</v>
+      </c>
+      <c r="U22" s="29">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="32.5" thickBot="1">
+      <c r="A23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="29">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="M23" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="N23" s="29">
+        <v>11.56</v>
+      </c>
+      <c r="O23" s="29">
+        <v>8.18</v>
+      </c>
+      <c r="P23" s="29">
+        <v>3.71</v>
+      </c>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" s="29">
+        <v>22.95</v>
+      </c>
+      <c r="T23" s="29">
+        <v>8.9</v>
+      </c>
+      <c r="U23" s="29">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="112.5" thickBot="1">
+      <c r="A24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="29">
+        <v>5.41</v>
+      </c>
+      <c r="M24" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="N24" s="29">
+        <v>11.19</v>
+      </c>
+      <c r="O24" s="29">
+        <v>7.62</v>
+      </c>
+      <c r="P24" s="29">
+        <v>3.66</v>
+      </c>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="29">
+        <v>21.24</v>
+      </c>
+      <c r="T24" s="29">
+        <v>8.26</v>
+      </c>
+      <c r="U24" s="29">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="112.5" thickBot="1">
+      <c r="A25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="29">
+        <v>5.48</v>
+      </c>
+      <c r="M25" s="29">
+        <v>2.23</v>
+      </c>
+      <c r="N25" s="29">
+        <v>10.8</v>
+      </c>
+      <c r="O25" s="29">
+        <v>7.38</v>
+      </c>
+      <c r="P25" s="29">
+        <v>3.64</v>
+      </c>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" s="29">
+        <v>21.12</v>
+      </c>
+      <c r="T25" s="29">
+        <v>7.93</v>
+      </c>
+      <c r="U25" s="29">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1"/>
+    <row r="27" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A27" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A28" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A29" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A30" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A31" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" thickBot="1">
+      <c r="A32" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B4E330-4B61-4D86-A6F2-504C613A058E}">
+  <dimension ref="B3:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15" thickBot="1"/>
+    <row r="4" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickBot="1">
+      <c r="C5" s="37">
+        <v>95</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1768</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1007</v>
+      </c>
+      <c r="H5" s="37">
+        <v>109</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B6" s="36">
+        <v>-6800</v>
+      </c>
+      <c r="C6" s="38">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="D6" s="39">
+        <v>-0.26</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="38">
+        <v>-0.14810000000000001</v>
+      </c>
+      <c r="H6" s="38">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" thickBot="1">
+      <c r="C7" s="37">
+        <v>6</v>
+      </c>
+      <c r="D7" s="37">
+        <v>167</v>
+      </c>
+      <c r="E7" s="37">
+        <v>382</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="37">
+        <v>589</v>
+      </c>
+      <c r="H7" s="37">
+        <v>101</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B8" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="38">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="D8" s="38">
+        <v>-8.6900000000000005E-2</v>
+      </c>
+      <c r="E8" s="38">
+        <v>-0.19889999999999999</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="38">
+        <v>-0.30659999999999998</v>
+      </c>
+      <c r="H8" s="38">
+        <v>-5.2600000000000001E-2</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="37">
+        <v>46</v>
+      </c>
+      <c r="D9" s="37">
+        <v>840</v>
+      </c>
+      <c r="E9" s="37">
+        <v>536</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="37">
+        <v>37</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B10" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="38">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="D10" s="38">
+        <v>-0.49380000000000002</v>
+      </c>
+      <c r="E10" s="38">
+        <v>-0.31509999999999999</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="38">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B11" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="37">
+        <v>35</v>
+      </c>
+      <c r="D11" s="37">
+        <v>640</v>
+      </c>
+      <c r="E11" s="37">
+        <v>825</v>
+      </c>
+      <c r="F11" s="37">
+        <v>731</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="32.5" thickBot="1">
+      <c r="B12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="38">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="D12" s="38">
+        <v>-0.2591</v>
+      </c>
+      <c r="E12" s="38">
+        <v>-0.33400000000000002</v>
+      </c>
+      <c r="F12" s="38">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="32.5" thickBot="1">
+      <c r="B13" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1">
+      <c r="B14" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0</v>
+      </c>
+      <c r="D15" s="37">
+        <v>3</v>
+      </c>
+      <c r="E15" s="37">
+        <v>11</v>
+      </c>
+      <c r="F15" s="37">
+        <v>15</v>
+      </c>
+      <c r="G15" s="37">
+        <v>14</v>
+      </c>
+      <c r="H15" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1">
+      <c r="B16" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-6.6699999999999995E-2</v>
+      </c>
+      <c r="E16" s="38">
+        <v>-0.24440000000000001</v>
+      </c>
+      <c r="F16" s="38">
+        <v>-0.33329999999999999</v>
+      </c>
+      <c r="G16" s="38">
+        <v>-0.31109999999999999</v>
+      </c>
+      <c r="H16" s="38">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="37">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>29</v>
+      </c>
+      <c r="E17" s="37">
+        <v>59</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="37">
+        <v>98</v>
+      </c>
+      <c r="H17" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1">
+      <c r="B18" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="38">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-8.7099999999999997E-2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>-0.1772</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38">
+        <v>-0.29430000000000001</v>
+      </c>
+      <c r="H18" s="38">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1">
+      <c r="B19" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1">
+      <c r="B20" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="37">
+        <v>6</v>
+      </c>
+      <c r="D21" s="37">
+        <v>89</v>
+      </c>
+      <c r="E21" s="37">
+        <v>132</v>
+      </c>
+      <c r="F21" s="37">
+        <v>73</v>
+      </c>
+      <c r="G21" s="37">
+        <v>30</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1">
+      <c r="B22" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="38">
+        <v>-1.8200000000000001E-2</v>
+      </c>
+      <c r="D22" s="38">
+        <v>-0.2697</v>
+      </c>
+      <c r="E22" s="39">
+        <v>-0.4</v>
+      </c>
+      <c r="F22" s="38">
+        <v>-0.22120000000000001</v>
+      </c>
+      <c r="G22" s="38">
+        <v>-9.0899999999999995E-2</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15" thickBot="1">
+      <c r="B23" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" thickBot="1">
+      <c r="B24" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F17:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/tables.xlsx
+++ b/output/tables.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Documents\GitHub\touchCouples\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7597F61-002A-48BD-B749-466A387BB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB7D70-04F4-4B42-8D50-CCADF5ADD8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14910" yWindow="2235" windowWidth="16635" windowHeight="13215" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="209">
   <si>
     <t>Sample</t>
   </si>
@@ -807,6 +808,33 @@
   </si>
   <si>
     <t>Conflict Management</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>1,Anchor,39</t>
+  </si>
+  <si>
+    <t>2,Anchor,39</t>
+  </si>
+  <si>
+    <t>3,Anchor,42</t>
+  </si>
+  <si>
+    <t>4,Anchor,40</t>
+  </si>
+  <si>
+    <t>5,Anchor,50</t>
+  </si>
+  <si>
+    <t>6,Anchor,31</t>
+  </si>
+  <si>
+    <t>CoupleId, Role,Age</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1012,47 +1040,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1101,14 +1123,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,15 +1421,15 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -2606,10 +2631,10 @@
       <selection activeCell="P50" sqref="P50:U50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:22">
@@ -4175,22 +4200,22 @@
       <selection activeCell="C34" sqref="B34:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="46.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" thickBot="1"/>
-    <row r="3" spans="2:14" ht="15" thickBot="1">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1">
+    <row r="4" spans="2:14" ht="15.75" thickBot="1">
       <c r="C4" s="14"/>
       <c r="D4" s="12" t="s">
         <v>36</v>
@@ -4208,8 +4233,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B5" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -4218,10 +4243,10 @@
       <c r="D5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>36.678310000000003</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>8.5350599999999996</v>
       </c>
       <c r="K5">
@@ -4231,18 +4256,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1">
-      <c r="B6" s="23"/>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B6" s="41"/>
       <c r="C6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>35.560319999999997</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>8.1115999999999993</v>
       </c>
       <c r="K6">
@@ -4252,18 +4277,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1">
-      <c r="B7" s="23"/>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B7" s="41"/>
       <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>37.816029999999998</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>8.7943499999999997</v>
       </c>
       <c r="K7">
@@ -4273,18 +4298,18 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1">
-      <c r="B8" s="23"/>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B8" s="41"/>
       <c r="C8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>8.4260000000000002E-2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>1.5531699999999999</v>
       </c>
       <c r="K8">
@@ -4294,7 +4319,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1">
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
         <v>42</v>
@@ -4310,17 +4335,17 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="29.5" thickBot="1">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B10" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>205</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>1.5073529411764706</v>
       </c>
       <c r="F10" s="14"/>
@@ -4330,19 +4355,19 @@
       <c r="L10">
         <v>2498</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="29.5" customHeight="1" thickBot="1">
-      <c r="B11" s="24"/>
+    <row r="11" spans="2:14" ht="29.45" customHeight="1" thickBot="1">
+      <c r="B11" s="22"/>
       <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>79</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0.58088235294117652</v>
       </c>
       <c r="F11" s="14"/>
@@ -4352,78 +4377,78 @@
       <c r="L11">
         <v>518</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
-      <c r="B12" s="24"/>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>5102</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>37.514705882352942</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1">
-      <c r="B13" s="24"/>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>4195</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>30.845588235294116</v>
       </c>
       <c r="F13" s="14"/>
       <c r="J13" s="9"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1">
-      <c r="B14" s="24"/>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B14" s="22"/>
       <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>2498</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>18.367647058823529</v>
       </c>
       <c r="F14" s="14"/>
       <c r="J14" s="10"/>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1">
       <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>518</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>3.8088235294117645</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B16" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -4432,31 +4457,31 @@
       <c r="D16" s="14">
         <v>6805</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>50.036764705882355</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" thickBot="1">
-      <c r="B17" s="24"/>
+    <row r="17" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B17" s="22"/>
       <c r="C17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="14">
         <v>6773</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>49.801470588235297</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1">
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>69</v>
@@ -4464,16 +4489,16 @@
       <c r="D18" s="14">
         <v>22</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>0.16176470588235295</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="29.5" thickBot="1">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:14" ht="16.5" thickBot="1">
+      <c r="B19" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -4482,13 +4507,13 @@
       <c r="D19" s="8">
         <v>13142</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>96.632352941176464</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="2:14" ht="29.5" customHeight="1" thickBot="1">
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" ht="29.45" customHeight="1" thickBot="1">
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -4496,7 +4521,7 @@
       <c r="D20" s="8">
         <v>458</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>3.3676470588235294</v>
       </c>
       <c r="F20" s="8"/>
@@ -4584,7 +4609,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" thickBot="1">
+    <row r="32" spans="2:14" ht="15.75" thickBot="1">
       <c r="L32">
         <v>6805</v>
       </c>
@@ -4594,20 +4619,20 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="16.5" thickBot="1">
-      <c r="C33" s="26"/>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="25" t="s">
         <v>76</v>
       </c>
       <c r="L33">
@@ -4619,25 +4644,25 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="27">
         <v>4.82</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="27">
         <v>1.61</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="27">
         <v>11.93</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="27">
         <v>3.91</v>
       </c>
       <c r="L34">
@@ -4649,71 +4674,71 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="27">
         <v>1.87</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="27">
         <v>11.44</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="27">
         <v>7.89</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="27">
         <v>3.79</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="27">
         <v>5.25</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="27">
         <v>2.06</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="27">
         <v>11.1</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="27">
         <v>7.6</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="27">
         <v>3.68</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="27">
         <v>5.41</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="27">
         <v>2.11</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="27">
         <v>11.19</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="27">
         <v>7.62</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="27">
         <v>3.66</v>
       </c>
       <c r="K37" t="s">
@@ -4728,31 +4753,31 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="27">
         <v>5.2</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="27">
         <v>1.82</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="27">
         <v>11.31</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="27">
         <v>7.82</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="27">
         <v>3.81</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="20">
         <v>458</v>
       </c>
       <c r="M38">
@@ -4761,48 +4786,48 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="27">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="27">
         <v>1.72</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="27">
         <v>11.56</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="27">
         <v>8.18</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="27">
         <v>3.71</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="27">
         <v>1.83</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <v>11.44</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="27">
         <v>7.83</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="27">
         <v>3.75</v>
       </c>
       <c r="N40" s="9" t="s">
@@ -4810,25 +4835,25 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="27">
         <v>1.79</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="27">
         <v>11.47</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="27">
         <v>7.96</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="27">
         <v>3.88</v>
       </c>
       <c r="N41" s="9" t="s">
@@ -4836,111 +4861,111 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="27">
         <v>5.48</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="27">
         <v>2.23</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="27">
         <v>10.8</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="27">
         <v>7.38</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="27">
         <v>3.64</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15" thickBot="1"/>
+    <row r="45" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="46" spans="2:14" ht="16.5" thickBot="1">
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="29" t="s">
         <v>78</v>
       </c>
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" thickBot="1">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="32"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="2:9" ht="16.5" thickBot="1">
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="32"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="32"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="2:9" ht="16.5" thickBot="1">
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="32"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" thickBot="1">
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="32"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="2:9" ht="16.5" thickBot="1">
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" spans="2:9" ht="32.5" thickBot="1">
-      <c r="B54" s="28" t="s">
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" ht="32.25" thickBot="1">
+      <c r="B54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="2:9" ht="32.5" thickBot="1">
-      <c r="B55" s="28" t="s">
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" ht="32.25" thickBot="1">
+      <c r="B55" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="32"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="2:9">
       <c r="C56" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I56" s="32"/>
+      <c r="I56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4954,1168 +4979,1168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ED060-DE75-408C-900D-C7194229C0DE}">
   <dimension ref="A4:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:21" ht="15" thickBot="1"/>
+    <row r="4" spans="4:21" ht="15.75" thickBot="1"/>
     <row r="5" spans="4:21" ht="16.5" thickBot="1">
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27" t="s">
+      <c r="Q5" s="25"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="4:21" ht="15" thickBot="1">
-      <c r="D6" s="28" t="s">
+    <row r="6" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <v>4.82</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="27">
         <v>1.61</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="27">
         <v>11.93</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="27">
         <v>3.91</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="27">
         <v>23.44</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <v>9.31</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="27">
         <v>24.35</v>
       </c>
     </row>
-    <row r="7" spans="4:21" ht="15" thickBot="1">
-      <c r="D7" s="28" t="s">
+    <row r="7" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <v>1.87</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <v>11.44</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="27">
         <v>7.89</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="27">
         <v>3.79</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="28" t="s">
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="27">
         <v>21.94</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="27">
         <v>8.65</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="27">
         <v>23.35</v>
       </c>
     </row>
-    <row r="8" spans="4:21" ht="15" thickBot="1">
-      <c r="D8" s="28" t="s">
+    <row r="8" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <v>5.25</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <v>2.06</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <v>11.1</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="27">
         <v>7.6</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="27">
         <v>3.68</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="28" t="s">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="27">
         <v>20.72</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="27">
         <v>8.15</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="27">
         <v>22.71</v>
       </c>
     </row>
-    <row r="9" spans="4:21" ht="15" thickBot="1">
-      <c r="D9" s="28" t="s">
+    <row r="9" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <v>5.41</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <v>2.11</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>11.19</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="27">
         <v>7.62</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="27">
         <v>3.66</v>
       </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="28" t="s">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="27">
         <v>21.24</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <v>8.26</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="27">
         <v>22.87</v>
       </c>
     </row>
-    <row r="10" spans="4:21" ht="15" thickBot="1">
-      <c r="D10" s="28" t="s">
+    <row r="10" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="27">
         <v>5.2</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <v>1.82</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <v>11.31</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="27">
         <v>7.82</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="27">
         <v>3.81</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="28" t="s">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="27">
         <v>22.77</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="27">
         <v>8.8699999999999992</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="27">
         <v>23.56</v>
       </c>
     </row>
-    <row r="11" spans="4:21" ht="15" thickBot="1">
-      <c r="D11" s="28" t="s">
+    <row r="11" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28" t="s">
+      <c r="J11" s="27"/>
+      <c r="K11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <v>4.8600000000000003</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <v>1.72</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>11.56</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="27">
         <v>8.18</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="27">
         <v>3.71</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="28" t="s">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="27">
         <v>22.95</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="27">
         <v>8.9</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="27">
         <v>23.86</v>
       </c>
     </row>
-    <row r="12" spans="4:21" ht="15" thickBot="1">
-      <c r="D12" s="28" t="s">
+    <row r="12" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="27">
         <v>1.83</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="27">
         <v>11.44</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="27">
         <v>7.83</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="27">
         <v>3.75</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="28" t="s">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="27">
         <v>21.83</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="27">
         <v>8.69</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="27">
         <v>23.44</v>
       </c>
     </row>
-    <row r="13" spans="4:21" ht="15" thickBot="1">
-      <c r="D13" s="28" t="s">
+    <row r="13" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <v>1.79</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <v>11.47</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="27">
         <v>7.96</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="27">
         <v>3.88</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="28" t="s">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="27">
         <v>22.92</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="27">
         <v>9.01</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="27">
         <v>23.69</v>
       </c>
     </row>
-    <row r="14" spans="4:21" ht="15" thickBot="1">
-      <c r="D14" s="28" t="s">
+    <row r="14" spans="4:21" ht="15.75" thickBot="1">
+      <c r="D14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <v>5.48</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <v>2.23</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="27">
         <v>10.8</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="27">
         <v>7.38</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="27">
         <v>3.64</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="28" t="s">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="27">
         <v>21.12</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="27">
         <v>7.93</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="27">
         <v>22.61</v>
       </c>
     </row>
-    <row r="15" spans="4:21" ht="15" thickBot="1"/>
-    <row r="16" spans="4:21" ht="15" thickBot="1">
-      <c r="E16" s="27" t="s">
+    <row r="15" spans="4:21" ht="15.75" thickBot="1"/>
+    <row r="16" spans="4:21" ht="15.75" thickBot="1">
+      <c r="E16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="L16" s="27" t="s">
+      <c r="J16" s="40"/>
+      <c r="L16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="44"/>
-      <c r="S16" s="27" t="s">
+      <c r="Q16" s="40"/>
+      <c r="S16" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="T16" s="27" t="s">
+      <c r="T16" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="U16" s="27" t="s">
+      <c r="U16" s="25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="32.5" thickBot="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:21" ht="32.25" thickBot="1">
+      <c r="A17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <v>4.82</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <v>1.61</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <v>11.93</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="27">
         <v>3.91</v>
       </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30" t="s">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="27">
         <v>23.44</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="27">
         <v>9.31</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="27">
         <v>24.35</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="32.5" thickBot="1">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:21" ht="32.25" thickBot="1">
+      <c r="A18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="31" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <v>1.87</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="27">
         <v>11.44</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="27">
         <v>7.89</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="27">
         <v>3.79</v>
       </c>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31" t="s">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="27">
         <v>21.94</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="27">
         <v>8.65</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="27">
         <v>23.35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="48.5" thickBot="1">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:21" ht="48" thickBot="1">
+      <c r="A19" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="31" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <v>1.83</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="27">
         <v>11.44</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="27">
         <v>7.83</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="27">
         <v>3.75</v>
       </c>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="31" t="s">
+      <c r="Q19" s="27"/>
+      <c r="R19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="27">
         <v>21.83</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="27">
         <v>8.69</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="27">
         <v>23.44</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="32.5" thickBot="1">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:21" ht="32.25" thickBot="1">
+      <c r="A20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="31" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="27">
         <v>5.25</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <v>2.06</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="27">
         <v>11.1</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="27">
         <v>7.6</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P20" s="27">
         <v>3.68</v>
       </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="31" t="s">
+      <c r="Q20" s="27"/>
+      <c r="R20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="27">
         <v>20.72</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="27">
         <v>8.15</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="27">
         <v>22.71</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.5" thickBot="1">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:21" ht="32.25" thickBot="1">
+      <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="31" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <v>5.2</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>1.82</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="27">
         <v>11.31</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="27">
         <v>7.82</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="27">
         <v>3.81</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="31" t="s">
+      <c r="Q21" s="27"/>
+      <c r="R21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="27">
         <v>22.77</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="27">
         <v>8.8699999999999992</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="27">
         <v>23.56</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="48.5" thickBot="1">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:21" ht="48" thickBot="1">
+      <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="31" t="s">
+      <c r="J22" s="27"/>
+      <c r="K22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <v>1.79</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="27">
         <v>11.47</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="27">
         <v>7.96</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="27">
         <v>3.88</v>
       </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="31" t="s">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="27">
         <v>22.92</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="27">
         <v>9.01</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="27">
         <v>23.69</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="32.5" thickBot="1">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:21" ht="48" thickBot="1">
+      <c r="A23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="31" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="27">
         <v>4.8600000000000003</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>1.72</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="27">
         <v>11.56</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="27">
         <v>8.18</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="27">
         <v>3.71</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="31" t="s">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="27">
         <v>22.95</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="27">
         <v>8.9</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="27">
         <v>23.86</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="112.5" thickBot="1">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:21" ht="111" thickBot="1">
+      <c r="A24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="31" t="s">
+      <c r="J24" s="27"/>
+      <c r="K24" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="27">
         <v>5.41</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <v>2.11</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="27">
         <v>11.19</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="27">
         <v>7.62</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="27">
         <v>3.66</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="31" t="s">
+      <c r="Q24" s="27"/>
+      <c r="R24" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="S24" s="29">
+      <c r="S24" s="27">
         <v>21.24</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="27">
         <v>8.26</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="27">
         <v>22.87</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="112.5" thickBot="1">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:21" ht="111" thickBot="1">
+      <c r="A25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="31" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="27">
         <v>5.48</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <v>2.23</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="27">
         <v>10.8</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="27">
         <v>7.38</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="27">
         <v>3.64</v>
       </c>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="31" t="s">
+      <c r="Q25" s="27"/>
+      <c r="R25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="27">
         <v>21.12</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="27">
         <v>7.93</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="27">
         <v>22.61</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1"/>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6125,6 +6150,658 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FAD563-27B1-448D-BC84-76F4D4E46DBB}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>151</v>
+      </c>
+      <c r="C10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>321</v>
+      </c>
+      <c r="C13">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>319</v>
+      </c>
+      <c r="C15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>252</v>
+      </c>
+      <c r="C16">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>271</v>
+      </c>
+      <c r="C17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>263</v>
+      </c>
+      <c r="C18">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>264</v>
+      </c>
+      <c r="C19">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>275</v>
+      </c>
+      <c r="C20">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>243</v>
+      </c>
+      <c r="C21">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>256</v>
+      </c>
+      <c r="C22">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>376</v>
+      </c>
+      <c r="C23">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>391</v>
+      </c>
+      <c r="C24">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>341</v>
+      </c>
+      <c r="C25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>224</v>
+      </c>
+      <c r="C26">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>178</v>
+      </c>
+      <c r="C27">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>181</v>
+      </c>
+      <c r="C28">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>131</v>
+      </c>
+      <c r="C31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>153</v>
+      </c>
+      <c r="C32">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>203</v>
+      </c>
+      <c r="C33">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>239</v>
+      </c>
+      <c r="C34">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>207</v>
+      </c>
+      <c r="C35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>68</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>74</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>78</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>79</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B4E330-4B61-4D86-A6F2-504C613A058E}">
   <dimension ref="B3:L29"/>
   <sheetViews>
@@ -6132,47 +6809,47 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15" thickBot="1"/>
-    <row r="4" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:12" ht="27.75" thickBot="1">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
-      <c r="C5" s="37">
+      <c r="C5" s="35">
         <v>95</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="35">
         <v>1768</v>
       </c>
       <c r="E5" s="42" t="s">
@@ -6181,459 +6858,459 @@
       <c r="F5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="35">
         <v>1007</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <v>109</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>-6800</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>-1.4E-2</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="37">
         <v>-0.26</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
-      <c r="G6" s="38">
+      <c r="G6" s="36">
         <v>-0.14810000000000001</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="36">
         <v>-1.6E-2</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1">
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <v>6</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="35">
         <v>167</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="35">
         <v>382</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="35">
         <v>589</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="35">
         <v>101</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>-8.6900000000000005E-2</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>-0.19889999999999999</v>
       </c>
       <c r="F8" s="43"/>
-      <c r="G8" s="38">
+      <c r="G8" s="36">
         <v>-0.30659999999999998</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>-5.2600000000000001E-2</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="35">
         <v>46</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="35">
         <v>840</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="35">
         <v>536</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <v>37</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <v>0</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>-2.7E-2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>-0.49380000000000002</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>-0.31509999999999999</v>
       </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="38">
+      <c r="G10" s="36">
         <v>-2.18E-2</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>0</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="35">
         <v>35</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="35">
         <v>640</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="35">
         <v>825</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="35">
         <v>731</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <v>0</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="32.5" thickBot="1">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B12" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <v>-1.4200000000000001E-2</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>-0.2591</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>-0.33400000000000002</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>-0.29599999999999999</v>
       </c>
       <c r="G12" s="43"/>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>0</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="32.5" thickBot="1">
-      <c r="B13" s="40" t="s">
+    <row r="13" spans="2:12" ht="32.25" thickBot="1">
+      <c r="B13" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1">
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="2:12" ht="30.75" thickBot="1">
+      <c r="B14" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="39" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <v>0</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="35">
         <v>3</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <v>11</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="35">
         <v>15</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <v>14</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1">
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B16" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>0</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>-0.24440000000000001</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>-0.33329999999999999</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>-0.31109999999999999</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>-4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="35">
         <v>2</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <v>29</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="35">
         <v>59</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <v>98</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B18" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="36">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>-8.7099999999999997E-2</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="36">
         <v>-0.1772</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="38">
+      <c r="G18" s="36">
         <v>-0.29430000000000001</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="36">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1">
-      <c r="B19" s="40" t="s">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B19" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1">
-      <c r="B20" s="40" t="s">
+    <row r="20" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B20" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="35">
         <v>6</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="35">
         <v>89</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="35">
         <v>132</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <v>73</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <v>30</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1">
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B22" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="36">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>-0.2697</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="37">
         <v>-0.4</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="36">
         <v>-0.22120000000000001</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="36">
         <v>-9.0899999999999995E-2</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1">
-      <c r="B23" s="40" t="s">
+    <row r="23" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B23" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15" thickBot="1">
-      <c r="B24" s="40" t="s">
+    <row r="24" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="39" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6643,23 +7320,23 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="33" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/tables.xlsx
+++ b/output/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB7D70-04F4-4B42-8D50-CCADF5ADD8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D9DFF0-19D9-46E5-8AF5-2465D0B4EBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="2235" windowWidth="16635" windowHeight="13215" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$1:$A$117</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="219">
   <si>
     <t>Sample</t>
   </si>
@@ -835,6 +839,36 @@
   </si>
   <si>
     <t>CoupleId, Role,Age</t>
+  </si>
+  <si>
+    <t>Deprived: Partner</t>
+  </si>
+  <si>
+    <t>Deprived: Both</t>
+  </si>
+  <si>
+    <t>Deprived: Me</t>
+  </si>
+  <si>
+    <t>Saturated: Both</t>
+  </si>
+  <si>
+    <t>Saturated: Me</t>
+  </si>
+  <si>
+    <t>Saturated: Partner</t>
+  </si>
+  <si>
+    <t>Mixed: Me deprived partner saturated</t>
+  </si>
+  <si>
+    <t>Mixed: Me saturated,partner deprived</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1134,6 +1168,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,19 +1463,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -2627,14 +2673,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E75B23-68A5-4470-87E7-2F2D0D7D6C48}">
   <dimension ref="B4:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P50" sqref="P50:U50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:22">
@@ -4196,26 +4242,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F53505-7D48-4A24-848D-448A31421B66}">
   <dimension ref="B2:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C34" sqref="B34:C42"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1">
+    <row r="2" spans="2:14" ht="15" thickBot="1"/>
+    <row r="3" spans="2:14" ht="15" thickBot="1">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1">
+    <row r="4" spans="2:14" ht="15" thickBot="1">
       <c r="C4" s="14"/>
       <c r="D4" s="12" t="s">
         <v>36</v>
@@ -4233,7 +4279,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="41" t="s">
         <v>37</v>
       </c>
@@ -4256,7 +4302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1">
+    <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="41"/>
       <c r="C6" s="14" t="s">
         <v>39</v>
@@ -4277,7 +4323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+    <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="41"/>
       <c r="C7" s="14" t="s">
         <v>40</v>
@@ -4298,7 +4344,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1">
+    <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="41"/>
       <c r="C8" s="14" t="s">
         <v>41</v>
@@ -4319,7 +4365,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1">
+    <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
         <v>42</v>
@@ -4335,7 +4381,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1">
+    <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="22" t="s">
         <v>53</v>
       </c>
@@ -4359,7 +4405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="29.45" customHeight="1" thickBot="1">
+    <row r="11" spans="2:14" ht="29.5" customHeight="1" thickBot="1">
       <c r="B11" s="22"/>
       <c r="C11" t="s">
         <v>64</v>
@@ -4381,7 +4427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1">
+    <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="22"/>
       <c r="C12" t="s">
         <v>65</v>
@@ -4397,7 +4443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1">
+    <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="22"/>
       <c r="C13" t="s">
         <v>66</v>
@@ -4414,7 +4460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1">
+    <row r="14" spans="2:14" ht="15" thickBot="1">
       <c r="B14" s="22"/>
       <c r="C14" t="s">
         <v>67</v>
@@ -4431,7 +4477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1">
+    <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>68</v>
@@ -4447,7 +4493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1">
+    <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="B16" s="23" t="s">
         <v>44</v>
       </c>
@@ -4465,7 +4511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15.75" thickBot="1">
+    <row r="17" spans="2:14" ht="15" thickBot="1">
       <c r="B17" s="22"/>
       <c r="C17" s="14" t="s">
         <v>46</v>
@@ -4481,7 +4527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1">
+    <row r="18" spans="2:14" ht="15" thickBot="1">
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>69</v>
@@ -4513,7 +4559,7 @@
       <c r="F19" s="8"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="2:14" ht="29.45" customHeight="1" thickBot="1">
+    <row r="20" spans="2:14" ht="29.5" customHeight="1" thickBot="1">
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -4609,7 +4655,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1">
+    <row r="32" spans="2:14" ht="15" thickBot="1">
       <c r="L32">
         <v>6805</v>
       </c>
@@ -4886,7 +4932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="45" spans="2:14" ht="15" thickBot="1"/>
     <row r="46" spans="2:14" ht="16.5" thickBot="1">
       <c r="C46" s="28" t="s">
         <v>77</v>
@@ -4943,7 +4989,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="2:9" ht="32.25" thickBot="1">
+    <row r="54" spans="2:9" ht="32.5" thickBot="1">
       <c r="B54" s="26" t="s">
         <v>20</v>
       </c>
@@ -4952,7 +4998,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="2:9" ht="32.25" thickBot="1">
+    <row r="55" spans="2:9" ht="32.5" thickBot="1">
       <c r="B55" s="26" t="s">
         <v>25</v>
       </c>
@@ -4979,18 +5025,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ED060-DE75-408C-900D-C7194229C0DE}">
   <dimension ref="A4:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:21" ht="15.75" thickBot="1"/>
+    <row r="4" spans="4:21" ht="15" thickBot="1"/>
     <row r="5" spans="4:21" ht="16.5" thickBot="1">
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
@@ -5037,7 +5083,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="4:21" ht="15.75" thickBot="1">
+    <row r="6" spans="4:21" ht="15" thickBot="1">
       <c r="D6" s="26" t="s">
         <v>17</v>
       </c>
@@ -5089,7 +5135,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="7" spans="4:21" ht="15.75" thickBot="1">
+    <row r="7" spans="4:21" ht="15" thickBot="1">
       <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
@@ -5141,7 +5187,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="8" spans="4:21" ht="15.75" thickBot="1">
+    <row r="8" spans="4:21" ht="15" thickBot="1">
       <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
@@ -5193,7 +5239,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="9" spans="4:21" ht="15.75" thickBot="1">
+    <row r="9" spans="4:21" ht="15" thickBot="1">
       <c r="D9" s="26" t="s">
         <v>20</v>
       </c>
@@ -5245,7 +5291,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="10" spans="4:21" ht="15.75" thickBot="1">
+    <row r="10" spans="4:21" ht="15" thickBot="1">
       <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
@@ -5297,7 +5343,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="11" spans="4:21" ht="15.75" thickBot="1">
+    <row r="11" spans="4:21" ht="15" thickBot="1">
       <c r="D11" s="26" t="s">
         <v>22</v>
       </c>
@@ -5349,7 +5395,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="12" spans="4:21" ht="15.75" thickBot="1">
+    <row r="12" spans="4:21" ht="15" thickBot="1">
       <c r="D12" s="26" t="s">
         <v>23</v>
       </c>
@@ -5401,7 +5447,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="13" spans="4:21" ht="15.75" thickBot="1">
+    <row r="13" spans="4:21" ht="15" thickBot="1">
       <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
@@ -5453,7 +5499,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="14" spans="4:21" ht="15.75" thickBot="1">
+    <row r="14" spans="4:21" ht="15" thickBot="1">
       <c r="D14" s="26" t="s">
         <v>25</v>
       </c>
@@ -5505,8 +5551,8 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="15" spans="4:21" ht="15.75" thickBot="1"/>
-    <row r="16" spans="4:21" ht="15.75" thickBot="1">
+    <row r="15" spans="4:21" ht="15" thickBot="1"/>
+    <row r="16" spans="4:21" ht="15" thickBot="1">
       <c r="E16" s="25" t="s">
         <v>149</v>
       </c>
@@ -5549,7 +5595,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="32.25" thickBot="1">
+    <row r="17" spans="1:21" ht="32.5" thickBot="1">
       <c r="A17" s="29" t="s">
         <v>78</v>
       </c>
@@ -5607,7 +5653,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="32.25" thickBot="1">
+    <row r="18" spans="1:21" ht="32.5" thickBot="1">
       <c r="A18" s="29" t="s">
         <v>27</v>
       </c>
@@ -5665,7 +5711,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="48" thickBot="1">
+    <row r="19" spans="1:21" ht="48.5" thickBot="1">
       <c r="A19" s="29" t="s">
         <v>79</v>
       </c>
@@ -5723,7 +5769,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="32.25" thickBot="1">
+    <row r="20" spans="1:21" ht="32.5" thickBot="1">
       <c r="A20" s="29" t="s">
         <v>81</v>
       </c>
@@ -5781,7 +5827,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32.25" thickBot="1">
+    <row r="21" spans="1:21" ht="32.5" thickBot="1">
       <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
@@ -5839,7 +5885,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="48" thickBot="1">
+    <row r="22" spans="1:21" ht="48.5" thickBot="1">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -5897,7 +5943,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="48" thickBot="1">
+    <row r="23" spans="1:21" ht="32.5" thickBot="1">
       <c r="A23" s="29" t="s">
         <v>28</v>
       </c>
@@ -5955,7 +6001,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="111" thickBot="1">
+    <row r="24" spans="1:21" ht="112.5" thickBot="1">
       <c r="A24" s="29" t="s">
         <v>31</v>
       </c>
@@ -6013,7 +6059,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="111" thickBot="1">
+    <row r="25" spans="1:21" ht="112.5" thickBot="1">
       <c r="A25" s="29" t="s">
         <v>82</v>
       </c>
@@ -6071,7 +6117,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:21" ht="15" thickBot="1"/>
     <row r="27" spans="1:21" ht="16.5" thickBot="1">
       <c r="A27" s="28" t="s">
         <v>78</v>
@@ -6153,11 +6199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FAD563-27B1-448D-BC84-76F4D4E46DBB}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I8"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -6806,22 +6852,22 @@
   <dimension ref="B3:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:12" ht="27.75" thickBot="1">
+    <row r="3" spans="2:12" ht="15" thickBot="1"/>
+    <row r="4" spans="2:12" ht="26.5" thickBot="1">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
         <v>7</v>
@@ -7013,7 +7059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="32.25" thickBot="1">
+    <row r="12" spans="2:12" ht="32.5" thickBot="1">
       <c r="B12" s="34" t="s">
         <v>97</v>
       </c>
@@ -7037,7 +7083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="32.25" thickBot="1">
+    <row r="13" spans="2:12" ht="32.5" thickBot="1">
       <c r="B13" s="38" t="s">
         <v>99</v>
       </c>
@@ -7063,7 +7109,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30.75" thickBot="1">
+    <row r="14" spans="2:12" ht="15" thickBot="1">
       <c r="B14" s="38" t="s">
         <v>106</v>
       </c>
@@ -7109,7 +7155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1">
+    <row r="16" spans="2:12" ht="15" thickBot="1">
       <c r="B16" s="34" t="s">
         <v>113</v>
       </c>
@@ -7155,7 +7201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+    <row r="18" spans="2:8" ht="15" thickBot="1">
       <c r="B18" s="34" t="s">
         <v>115</v>
       </c>
@@ -7176,7 +7222,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+    <row r="19" spans="2:8" ht="15" thickBot="1">
       <c r="B19" s="38" t="s">
         <v>117</v>
       </c>
@@ -7199,7 +7245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1">
+    <row r="20" spans="2:8" ht="15" thickBot="1">
       <c r="B20" s="38" t="s">
         <v>124</v>
       </c>
@@ -7245,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1">
+    <row r="22" spans="2:8" ht="15" thickBot="1">
       <c r="B22" s="34" t="s">
         <v>131</v>
       </c>
@@ -7268,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="30.75" thickBot="1">
+    <row r="23" spans="2:8" ht="15" thickBot="1">
       <c r="B23" s="38" t="s">
         <v>132</v>
       </c>
@@ -7291,7 +7337,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="30.75" thickBot="1">
+    <row r="24" spans="2:8" ht="15" thickBot="1">
       <c r="B24" s="38" t="s">
         <v>139</v>
       </c>
@@ -7331,13 +7377,3172 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C2D904-1FE8-46D7-A957-F5CA1B62A1C4}">
+  <dimension ref="A1:X117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" customWidth="1"/>
+    <col min="24" max="24" width="3.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2">
+        <v>7.6222570532915297</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2.3184980957913299</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.9605579605579599</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.43082998860003</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="X2" s="48"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.2767462422634797</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.3771176804153402</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>217</v>
+      </c>
+      <c r="R3" t="s">
+        <v>218</v>
+      </c>
+      <c r="S3" t="s">
+        <v>217</v>
+      </c>
+      <c r="T3" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" t="s">
+        <v>217</v>
+      </c>
+      <c r="V3" t="s">
+        <v>218</v>
+      </c>
+      <c r="W3" t="s">
+        <v>217</v>
+      </c>
+      <c r="X3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.2431506849314999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.6096149874482002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.6222570532915297</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.3184980957913299</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.2767462422634797</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.3771176804153402</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.9605579605579599</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.43082998860003</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8.0091228070175404</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.4033265531844901</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7.7888888888888799</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.5768827280761499</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.0671378091872796</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2.5079479204563602</v>
+      </c>
+      <c r="S4" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2.2366873828384701</v>
+      </c>
+      <c r="U4" s="2">
+        <v>8.2431506849314999</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2.6096149874482002</v>
+      </c>
+      <c r="W4" s="2">
+        <v>8.4289617486338795</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2.5002208151601701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.0671378091872796</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.5079479204563602</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.4189083311569597</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0526043703950201</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.2103865447034501</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.02456828473606</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9.3291626564003796</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.03612685923909</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9.2845100105373994</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.0244071940975501</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10.0555555555555</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2.0354228840964699</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>9.3843416370106691</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2.0602453938468801</v>
+      </c>
+      <c r="S5" s="2">
+        <v>9.5130890052355994</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2.0231174165866199</v>
+      </c>
+      <c r="U5" s="2">
+        <v>9.2862068965517199</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2.1750749321588598</v>
+      </c>
+      <c r="W5" s="2">
+        <v>9.2295081967213104</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2.0478664550553201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.7888888888888799</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.5768827280761499</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10.1033036182485</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.2344428729860901</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.7437943262411295</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.2467416339022201</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9.9734811957569907</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.1863874639861098</v>
+      </c>
+      <c r="M6" s="2">
+        <v>9.8981318293972507</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.2575340168732398</v>
+      </c>
+      <c r="O6" s="2">
+        <v>9.5444444444444407</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2.0398342690506701</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10.0359712230215</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2.2446408601882499</v>
+      </c>
+      <c r="S6" s="2">
+        <v>10.0524934383202</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2.1757939453725799</v>
+      </c>
+      <c r="U6" s="2">
+        <v>10.0379310344827</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2.340099337362</v>
+      </c>
+      <c r="W6" s="2">
+        <v>9.79834254143646</v>
+      </c>
+      <c r="X6" s="3">
+        <v>2.3015585502994802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.0091228070175404</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4033265531844901</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11.097650130548301</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.95145303165474</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10.774079528718699</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.0018935495903198</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10.998075998075899</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.94386974812778</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10.947349947349901</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.9583176191588201</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10.522222222222201</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2.2144965581915401</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10.996441281138701</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1.8755917554593</v>
+      </c>
+      <c r="S7" s="2">
+        <v>11.089238845144299</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1.90495605645206</v>
+      </c>
+      <c r="U7" s="2">
+        <v>10.689655172413699</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2.0614008787969</v>
+      </c>
+      <c r="W7" s="2">
+        <v>10.8937329700272</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2.2968590966624198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.2366873828384701</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.0645245559038</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.1096826829914401</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10.9286556603773</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.1414678604658599</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11.020712909441199</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.10038543162789</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10.935789473684199</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2.1467117118128201</v>
+      </c>
+      <c r="O8" s="2">
+        <v>11.5730337078651</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2.2708010223138801</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>11.074204946996399</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2.06408128388885</v>
+      </c>
+      <c r="S8" s="2">
+        <v>10.9842519685039</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2.1642462598297101</v>
+      </c>
+      <c r="U8" s="2">
+        <v>10.818493150684899</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2.21629403140239</v>
+      </c>
+      <c r="W8" s="2">
+        <v>10.8967391304347</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2.25854483243072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.4289617486338795</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5002208151601701</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.8225638353309002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.53748793858278</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5.2486741308190901</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.62522473755637</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5.0595867371456</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.60836324539318</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5.0606804629954398</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.6198876157576001</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4.8555555555555499</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1.42656270404223</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5.20141342756183</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1.65833317434224</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5.0968586387434502</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1.6769365194308199</v>
+      </c>
+      <c r="U9" s="2">
+        <v>5.41095890410958</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.7845123425492999</v>
+      </c>
+      <c r="W9" s="2">
+        <v>5.4836956521739104</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1.7838987504358701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.4189083311569597</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.0526043703950201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.6125750065222999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.88946423740094605</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.0629782224838098</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.09734105542928</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.86801541425818</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.03431165015279</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.8310550297932</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.00743528330916</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.7222222222222201</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1.1018654027569601</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.8156028368794299</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1.03396302087301</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1.7947368421052601</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.99602041083372805</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2.1130136986301302</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1.16841383354085</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2.23433242506812</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1.2167404851969501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.3291626564003796</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.03612685923909</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2">
+        <v>11.932008368200799</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.2778673396369302</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11.100236546422201</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.4836061007649901</v>
+      </c>
+      <c r="K11" s="2">
+        <v>11.4442298406566</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.4706302415833101</v>
+      </c>
+      <c r="M11" s="2">
+        <v>11.440140845070401</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2.3952389037442199</v>
+      </c>
+      <c r="O11" s="2">
+        <v>11.5617977528089</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2.6369535460614002</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>11.309608540925201</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2.5565490530201398</v>
+      </c>
+      <c r="S11" s="2">
+        <v>11.4735449735449</v>
+      </c>
+      <c r="T11" s="3">
+        <v>2.5200708643016299</v>
+      </c>
+      <c r="U11" s="2">
+        <v>11.193771626297501</v>
+      </c>
+      <c r="V11" s="3">
+        <v>2.4952376785918302</v>
+      </c>
+      <c r="W11" s="2">
+        <v>10.800546448087401</v>
+      </c>
+      <c r="X11" s="3">
+        <v>2.6865672402143201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.2103865447034501</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.02456828473606</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.2026569419119504</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.5071769333039799</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7.59917598587404</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.6126229411419899</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7.8943323727185399</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.57722149412109</v>
+      </c>
+      <c r="M12" s="2">
+        <v>7.8316970546984503</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.5641564063436399</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8.17777777777777</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1.5182617039719499</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>7.8169014084506996</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1.7047832035669701</v>
+      </c>
+      <c r="S12" s="2">
+        <v>7.95800524934383</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1.62166912387847</v>
+      </c>
+      <c r="U12" s="2">
+        <v>7.6232876712328697</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1.83378155455144</v>
+      </c>
+      <c r="W12" s="2">
+        <v>7.3787465940054497</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1.85421851288715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.2862068965517199</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.1750749321588598</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.9132812499999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.76626628249857798</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.6812702146427498</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.80045885970499198</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3.7863658185309599</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.78284095218014504</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3.75437981779957</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.79359958337330505</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3.7111111111111099</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.76796015294048203</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.8098591549295699</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.85675943485273398</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3.8795811518324599</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.777742768276934</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3.6643835616438301</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.87952968735091597</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3.6440217391304301</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.84873178001268801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.3843416370106691</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.0602453938468801</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.3138838239124695</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.1528303064740799</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8.1452941176470492</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.63193208374111</v>
+      </c>
+      <c r="K14" s="2">
+        <v>8.6477654973570406</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.5809582217213101</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8.68511383537653</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.5174663234313399</v>
+      </c>
+      <c r="O14" s="2">
+        <v>8.8988764044943807</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.4145746535477199</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.8732394366197092</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1.5311103845266401</v>
+      </c>
+      <c r="S14" s="2">
+        <v>9.0104712041884802</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1.36506671136073</v>
+      </c>
+      <c r="U14" s="2">
+        <v>8.2551724137930993</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.86862386811312</v>
+      </c>
+      <c r="W14" s="2">
+        <v>7.9293478260869499</v>
+      </c>
+      <c r="X14" s="3">
+        <v>2.1409228213993798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.0555555555555</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.0354228840964699</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="2">
+        <v>23.441330998248599</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.05065303673724</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20.719433719433699</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.4282073733143301</v>
+      </c>
+      <c r="K15" s="2">
+        <v>21.935991605456401</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.37305915621421</v>
+      </c>
+      <c r="M15" s="2">
+        <v>21.826542491268899</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3.3604306242554198</v>
+      </c>
+      <c r="O15" s="2">
+        <v>22.949367088607499</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3.2890600877688798</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>22.772908366533802</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3.6474954568264599</v>
+      </c>
+      <c r="S15" s="2">
+        <v>22.9178885630498</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2.9959290416896298</v>
+      </c>
+      <c r="U15" s="2">
+        <v>21.236220472440898</v>
+      </c>
+      <c r="V15" s="3">
+        <v>3.62131741344324</v>
+      </c>
+      <c r="W15" s="2">
+        <v>21.119266055045799</v>
+      </c>
+      <c r="X15" s="3">
+        <v>3.8739133144209399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.2845100105373994</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.0244071940975501</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="2">
+        <v>24.352014010507801</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2.9080041116511999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>22.7100096556163</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3.1287935737610901</v>
+      </c>
+      <c r="K16" s="2">
+        <v>23.351024697845499</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3.2022202062204901</v>
+      </c>
+      <c r="M16" s="2">
+        <v>23.4403883495145</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3.0336496422883701</v>
+      </c>
+      <c r="O16" s="2">
+        <v>23.857142857142801</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2.6243509759772499</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>23.556451612903199</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3.2024849141220901</v>
+      </c>
+      <c r="S16" s="2">
+        <v>23.687315634218201</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3.19525140329486</v>
+      </c>
+      <c r="U16" s="2">
+        <v>22.867999999999999</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3.2491234530025799</v>
+      </c>
+      <c r="W16" s="2">
+        <v>22.612804878048699</v>
+      </c>
+      <c r="X16" s="3">
+        <v>3.4320963091033501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.5130890052355994</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.0231174165866199</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.2295081967213104</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.0478664550553201</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10.1033036182485</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.2344428729860901</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9.9734811957569907</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.1863874639861098</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.7437943262411295</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.2467416339022201</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10.0379310344827</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.340099337362</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10.0359712230215</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.2446408601882499</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.5444444444444407</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.0398342690506701</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.8981318293972507</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.2575340168732398</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10.0524934383202</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.1757939453725799</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9.79834254143646</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.3015585502994802</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <v>11.097650130548301</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.95145303165474</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10.998075998075899</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.94386974812778</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10.774079528718699</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.0018935495903198</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10.689655172413699</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.0614008787969</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10.996441281138701</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.8755917554593</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10.522222222222201</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.2144965581915401</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10.947349947349901</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.9583176191588201</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>11.089238845144299</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.90495605645206</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10.8937329700272</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.2968590966624198</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2">
+        <v>11.0645245559038</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.1096826829914401</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>11.020712909441199</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.10038543162789</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10.9286556603773</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.1414678604658599</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10.818493150684899</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.21629403140239</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2">
+        <v>11.074204946996399</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2.06408128388885</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2">
+        <v>11.5730337078651</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2.2708010223138801</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10.935789473684199</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.1467117118128201</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10.9842519685039</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2.1642462598297101</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10.8967391304347</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.25854483243072</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.8225638353309002</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1.53748793858278</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5.0595867371456</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.60836324539318</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5.2486741308190901</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1.62522473755637</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5.41095890410958</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1.7845123425492999</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5.20141342756183</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1.65833317434224</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.8555555555555499</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1.42656270404223</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.0606804629954398</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1.6198876157576001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.0968586387434502</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1.6769365194308199</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5.4836956521739104</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1.7838987504358701</v>
+      </c>
+      <c r="H54" s="44"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.6125750065222999</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.88946423740094605</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.86801541425818</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.03431165015279</v>
+      </c>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2.0629782224838098</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1.09734105542928</v>
+      </c>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2.1130136986301302</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1.16841383354085</v>
+      </c>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.8156028368794299</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1.03396302087301</v>
+      </c>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.7222222222222201</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.1018654027569601</v>
+      </c>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.8310550297932</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1.00743528330916</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.7947368421052601</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.99602041083372805</v>
+      </c>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2.23433242506812</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1.2167404851969501</v>
+      </c>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2">
+        <v>11.932008368200799</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2.2778673396369302</v>
+      </c>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2">
+        <v>11.4442298406566</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2.4706302415833101</v>
+      </c>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2">
+        <v>11.100236546422201</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.4836061007649901</v>
+      </c>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="2">
+        <v>11.193771626297501</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2.4952376785918302</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2">
+        <v>11.309608540925201</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2.5565490530201398</v>
+      </c>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2">
+        <v>11.5617977528089</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2.6369535460614002</v>
+      </c>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2">
+        <v>11.440140845070401</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2.3952389037442199</v>
+      </c>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2">
+        <v>11.4735449735449</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2.5200708643016299</v>
+      </c>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>10.800546448087401</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2.6865672402143201</v>
+      </c>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8.2026569419119504</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1.5071769333039799</v>
+      </c>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2">
+        <v>7.8943323727185399</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.57722149412109</v>
+      </c>
+      <c r="I74" s="44"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2">
+        <v>7.59917598587404</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1.6126229411419899</v>
+      </c>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7.6232876712328697</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1.83378155455144</v>
+      </c>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="2">
+        <v>7.8169014084506996</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1.7047832035669701</v>
+      </c>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="2">
+        <v>8.17777777777777</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1.5182617039719499</v>
+      </c>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7.8316970546984503</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1.5641564063436399</v>
+      </c>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7.95800524934383</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1.62166912387847</v>
+      </c>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2">
+        <v>7.3787465940054497</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1.85421851288715</v>
+      </c>
+      <c r="I81" s="44"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3.9132812499999998</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.76626628249857798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3.7863658185309599</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.78284095218014504</v>
+      </c>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3.6812702146427498</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.80045885970499198</v>
+      </c>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3.6643835616438301</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.87952968735091597</v>
+      </c>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3.8098591549295699</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.85675943485273398</v>
+      </c>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3.7111111111111099</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.76796015294048203</v>
+      </c>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3.75437981779957</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.79359958337330505</v>
+      </c>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.8795811518324599</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.777742768276934</v>
+      </c>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.6440217391304301</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.84873178001268801</v>
+      </c>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2">
+        <v>23.441330998248599</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3.05065303673724</v>
+      </c>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2">
+        <v>21.935991605456401</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3.37305915621421</v>
+      </c>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2">
+        <v>20.719433719433699</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.4282073733143301</v>
+      </c>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="2">
+        <v>21.236220472440898</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3.62131741344324</v>
+      </c>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2">
+        <v>22.772908366533802</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3.6474954568264599</v>
+      </c>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="2">
+        <v>22.949367088607499</v>
+      </c>
+      <c r="E96" s="3">
+        <v>3.2890600877688798</v>
+      </c>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2">
+        <v>21.826542491268899</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3.3604306242554198</v>
+      </c>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="2">
+        <v>22.9178885630498</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2.9959290416896298</v>
+      </c>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2">
+        <v>21.119266055045799</v>
+      </c>
+      <c r="E99" s="3">
+        <v>3.8739133144209399</v>
+      </c>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2">
+        <v>9.3138838239124695</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1.1528303064740799</v>
+      </c>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8.6477654973570406</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1.5809582217213101</v>
+      </c>
+      <c r="I101" s="44"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2">
+        <v>8.1452941176470492</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1.63193208374111</v>
+      </c>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8.2551724137930993</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1.86862386811312</v>
+      </c>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="2">
+        <v>8.8732394366197092</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1.5311103845266401</v>
+      </c>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="2">
+        <v>8.8988764044943807</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1.4145746535477199</v>
+      </c>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="2">
+        <v>8.68511383537653</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1.5174663234313399</v>
+      </c>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="2">
+        <v>9.0104712041884802</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1.36506671136073</v>
+      </c>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2">
+        <v>7.9293478260869499</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2.1409228213993798</v>
+      </c>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2">
+        <v>24.352014010507801</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2.9080041116511999</v>
+      </c>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="2">
+        <v>23.351024697845499</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3.2022202062204901</v>
+      </c>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="2">
+        <v>22.7100096556163</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3.1287935737610901</v>
+      </c>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2">
+        <v>22.867999999999999</v>
+      </c>
+      <c r="E112" s="3">
+        <v>3.2491234530025799</v>
+      </c>
+      <c r="I112" s="44"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="2">
+        <v>23.556451612903199</v>
+      </c>
+      <c r="E113" s="3">
+        <v>3.2024849141220901</v>
+      </c>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="2">
+        <v>23.857142857142801</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2.6243509759772499</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="2">
+        <v>23.4403883495145</v>
+      </c>
+      <c r="E115" s="3">
+        <v>3.0336496422883701</v>
+      </c>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="2">
+        <v>23.687315634218201</v>
+      </c>
+      <c r="E116" s="3">
+        <v>3.19525140329486</v>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2">
+        <v>22.612804878048699</v>
+      </c>
+      <c r="E117" s="3">
+        <v>3.4320963091033501</v>
+      </c>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>